--- a/docs/Caso 3/Datos recopilados sin seguridad.xlsx
+++ b/docs/Caso 3/Datos recopilados sin seguridad.xlsx
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -184,10 +184,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="AC377" workbookViewId="0">
+      <selection activeCell="AL407" sqref="AL407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,220 +489,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="7" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="Q5" s="7" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="U5" s="7" t="s">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="U5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="Y5" s="7" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="Y5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AC5" s="7" t="s">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AC5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AG5" s="7" t="s">
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AG5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AK5" s="7" t="s">
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AK5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="M6" s="7" t="s">
+      <c r="K6" s="9"/>
+      <c r="M6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="Q6" s="7" t="s">
+      <c r="O6" s="9"/>
+      <c r="Q6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="U6" s="7" t="s">
+      <c r="S6" s="9"/>
+      <c r="U6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="Y6" s="7" t="s">
+      <c r="W6" s="9"/>
+      <c r="Y6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AC6" s="7" t="s">
+      <c r="AA6" s="9"/>
+      <c r="AC6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AE6" s="7"/>
-      <c r="AG6" s="7" t="s">
+      <c r="AE6" s="9"/>
+      <c r="AG6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AH6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AI6" s="7"/>
-      <c r="AK6" s="7" t="s">
+      <c r="AI6" s="9"/>
+      <c r="AK6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AM6" s="7"/>
+      <c r="AM6" s="9"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8">
+      <c r="E7" s="9"/>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8">
+      <c r="I7" s="9"/>
+      <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>2</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8">
+      <c r="M7" s="9"/>
+      <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="7">
         <v>1</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>2</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8">
+      <c r="U7" s="9"/>
+      <c r="V7" s="7">
         <v>1</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>2</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="8">
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="7">
         <v>1</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="7">
         <v>2</v>
       </c>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="8">
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="7">
         <v>1</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <v>2</v>
       </c>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="8">
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="7">
         <v>1</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="7">
         <v>2</v>
       </c>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="8">
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="7">
         <v>1</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AM7" s="7">
         <v>2</v>
       </c>
     </row>
@@ -709,59 +710,81 @@
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="10">
+        <v>3.1</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="10">
+        <v>3.4</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="10">
+        <v>3.8</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="10">
+        <v>2.9</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="10">
+        <v>3.4</v>
+      </c>
       <c r="AA8" s="3"/>
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="10">
+        <v>0</v>
+      </c>
       <c r="AE8" s="3"/>
       <c r="AG8" s="1">
         <v>0</v>
       </c>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="10">
+        <v>2.7</v>
+      </c>
       <c r="AI8" s="3"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
-      <c r="AL8" s="2"/>
+      <c r="AL8" s="10">
+        <v>0</v>
+      </c>
       <c r="AM8" s="3"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="E9" s="1">
         <v>1</v>
@@ -813,7 +836,9 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="E10" s="1">
         <v>2</v>
@@ -865,7 +890,9 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="E11" s="1">
         <v>3</v>
@@ -917,7 +944,9 @@
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="E12" s="1">
         <v>4</v>
@@ -969,7 +998,9 @@
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="E13" s="1">
         <v>5</v>
@@ -1004,7 +1035,9 @@
       <c r="AC13" s="1">
         <v>5</v>
       </c>
-      <c r="AD13" s="2"/>
+      <c r="AD13" s="2">
+        <v>1.5</v>
+      </c>
       <c r="AE13" s="3"/>
       <c r="AG13" s="1">
         <v>5</v>
@@ -1021,7 +1054,9 @@
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="E14" s="1">
         <v>6</v>
@@ -1036,22 +1071,30 @@
       <c r="M14" s="1">
         <v>6</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>7</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="Q14" s="1">
         <v>6</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="10">
+        <v>7.8</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="U14" s="1">
         <v>6</v>
       </c>
-      <c r="V14" s="2"/>
+      <c r="V14" s="10">
+        <v>2.8</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="Y14" s="1">
         <v>6</v>
       </c>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="10">
+        <v>1.7</v>
+      </c>
       <c r="AA14" s="3"/>
       <c r="AC14" s="1">
         <v>6</v>
@@ -1061,7 +1104,9 @@
       <c r="AG14" s="1">
         <v>6</v>
       </c>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AI14" s="3"/>
       <c r="AK14" s="1">
         <v>6</v>
@@ -1073,17 +1118,23 @@
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="10">
+        <v>7.8</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="E15" s="1">
         <v>7</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="I15" s="1">
         <v>7</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="10">
+        <v>6.3</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="M15" s="1">
         <v>7</v>
@@ -1118,14 +1169,18 @@
       <c r="AK15" s="1">
         <v>7</v>
       </c>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="2">
+        <v>7.2</v>
+      </c>
       <c r="AM15" s="3"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="10">
+        <v>7.8</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="E16" s="1">
         <v>8</v>
@@ -1177,7 +1232,9 @@
       <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="10">
+        <v>7.8</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="E17" s="1">
         <v>9</v>
@@ -1229,7 +1286,9 @@
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="10">
+        <v>7.8</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="E18" s="1">
         <v>10</v>
@@ -1281,7 +1340,9 @@
       <c r="A19" s="1">
         <v>11</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="10">
+        <v>7.8</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="E19" s="1">
         <v>11</v>
@@ -1333,7 +1394,9 @@
       <c r="A20" s="1">
         <v>12</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="10">
+        <v>7.8</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="E20" s="1">
         <v>12</v>
@@ -1353,27 +1416,37 @@
       <c r="Q20" s="1">
         <v>12</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>3.6</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="U20" s="1">
         <v>12</v>
       </c>
-      <c r="V20" s="2"/>
+      <c r="V20" s="10">
+        <v>6.7</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="Y20" s="1">
         <v>12</v>
       </c>
-      <c r="Z20" s="2"/>
+      <c r="Z20" s="10">
+        <v>8.6</v>
+      </c>
       <c r="AA20" s="3"/>
       <c r="AC20" s="1">
         <v>12</v>
       </c>
-      <c r="AD20" s="2"/>
+      <c r="AD20" s="10">
+        <v>13.9</v>
+      </c>
       <c r="AE20" s="3"/>
       <c r="AG20" s="1">
         <v>12</v>
       </c>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="10">
+        <v>6.9</v>
+      </c>
       <c r="AI20" s="3"/>
       <c r="AK20" s="1">
         <v>12</v>
@@ -1385,12 +1458,16 @@
       <c r="A21" s="1">
         <v>13</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="10">
+        <v>7.8</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="E21" s="1">
         <v>13</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="10">
+        <v>7.8</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="I21" s="1">
         <v>13</v>
@@ -1400,7 +1477,9 @@
       <c r="M21" s="1">
         <v>13</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2">
+        <v>0.9</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="Q21" s="1">
         <v>13</v>
@@ -1437,7 +1516,9 @@
       <c r="A22" s="1">
         <v>14</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="10">
+        <v>1.8</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="E22" s="1">
         <v>14</v>
@@ -1447,7 +1528,9 @@
       <c r="I22" s="1">
         <v>14</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="M22" s="1">
         <v>14</v>
@@ -1482,14 +1565,18 @@
       <c r="AK22" s="1">
         <v>14</v>
       </c>
-      <c r="AL22" s="2"/>
+      <c r="AL22" s="2">
+        <v>1.5</v>
+      </c>
       <c r="AM22" s="3"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>15</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="10">
+        <v>1.8</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="E23" s="1">
         <v>15</v>
@@ -1541,7 +1628,9 @@
       <c r="A24" s="1">
         <v>16</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="10">
+        <v>1.8</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="E24" s="1">
         <v>16</v>
@@ -1593,7 +1682,9 @@
       <c r="A25" s="1">
         <v>17</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="10">
+        <v>1.8</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="E25" s="1">
         <v>17</v>
@@ -1645,7 +1736,9 @@
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="10">
+        <v>1.8</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="E26" s="1">
         <v>18</v>
@@ -1665,17 +1758,23 @@
       <c r="Q26" s="1">
         <v>18</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="U26" s="1">
         <v>18</v>
       </c>
-      <c r="V26" s="2"/>
+      <c r="V26" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="W26" s="3"/>
       <c r="Y26" s="1">
         <v>18</v>
       </c>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="10">
+        <v>1.8</v>
+      </c>
       <c r="AA26" s="3"/>
       <c r="AC26" s="1">
         <v>18</v>
@@ -1697,7 +1796,9 @@
       <c r="A27" s="1">
         <v>19</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="10">
+        <v>1.8</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="E27" s="1">
         <v>19</v>
@@ -1712,7 +1813,9 @@
       <c r="M27" s="1">
         <v>19</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2">
+        <v>1.4</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="Q27" s="1">
         <v>19</v>
@@ -1732,29 +1835,39 @@
       <c r="AC27" s="1">
         <v>19</v>
       </c>
-      <c r="AD27" s="2"/>
+      <c r="AD27" s="2">
+        <v>4.3</v>
+      </c>
       <c r="AE27" s="3"/>
       <c r="AG27" s="1">
         <v>19</v>
       </c>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="10">
+        <v>1.5</v>
+      </c>
       <c r="AI27" s="3"/>
       <c r="AK27" s="1">
         <v>19</v>
       </c>
-      <c r="AL27" s="2"/>
+      <c r="AL27" s="10">
+        <v>3.6</v>
+      </c>
       <c r="AM27" s="3"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="10">
+        <v>1.8</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1">
         <v>20</v>
@@ -1801,7 +1914,9 @@
       <c r="A29" s="1">
         <v>21</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="E29" s="1">
         <v>21</v>
@@ -1811,7 +1926,9 @@
       <c r="I29" s="1">
         <v>21</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <v>3.7</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="M29" s="1">
         <v>21</v>
@@ -1853,7 +1970,9 @@
       <c r="A30" s="1">
         <v>22</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="E30" s="1">
         <v>22</v>
@@ -1905,7 +2024,9 @@
       <c r="A31" s="1">
         <v>23</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="E31" s="1">
         <v>23</v>
@@ -1957,7 +2078,9 @@
       <c r="A32" s="1">
         <v>24</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="E32" s="1">
         <v>24</v>
@@ -1987,7 +2110,9 @@
       <c r="Y32" s="1">
         <v>24</v>
       </c>
-      <c r="Z32" s="2"/>
+      <c r="Z32" s="2">
+        <v>0.7</v>
+      </c>
       <c r="AA32" s="3"/>
       <c r="AC32" s="1">
         <v>24</v>
@@ -2009,7 +2134,9 @@
       <c r="A33" s="1">
         <v>25</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="E33" s="1">
         <v>25</v>
@@ -2024,7 +2151,9 @@
       <c r="M33" s="1">
         <v>25</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" s="2">
+        <v>9</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="Q33" s="1">
         <v>25</v>
@@ -2034,7 +2163,9 @@
       <c r="U33" s="1">
         <v>25</v>
       </c>
-      <c r="V33" s="2"/>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
       <c r="W33" s="3"/>
       <c r="Y33" s="1">
         <v>25</v>
@@ -2044,7 +2175,9 @@
       <c r="AC33" s="1">
         <v>25</v>
       </c>
-      <c r="AD33" s="2"/>
+      <c r="AD33" s="2">
+        <v>6.2</v>
+      </c>
       <c r="AE33" s="3"/>
       <c r="AG33" s="1">
         <v>25</v>
@@ -2061,12 +2194,16 @@
       <c r="A34" s="1">
         <v>26</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="E34" s="1">
         <v>26</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="10">
+        <v>3.7</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="I34" s="1">
         <v>26</v>
@@ -2081,7 +2218,9 @@
       <c r="Q34" s="1">
         <v>26</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="2">
+        <v>5.8</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="U34" s="1">
         <v>26</v>
@@ -2101,19 +2240,25 @@
       <c r="AG34" s="1">
         <v>26</v>
       </c>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="2">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="AI34" s="3"/>
       <c r="AK34" s="1">
         <v>26</v>
       </c>
-      <c r="AL34" s="2"/>
+      <c r="AL34" s="10">
+        <v>10.3</v>
+      </c>
       <c r="AM34" s="3"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="E35" s="1">
         <v>27</v>
@@ -2165,7 +2310,9 @@
       <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2">
+        <v>8.9</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="E36" s="1">
         <v>28</v>
@@ -2175,7 +2322,9 @@
       <c r="I36" s="1">
         <v>28</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2">
+        <v>8</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="M36" s="1">
         <v>28</v>
@@ -2217,7 +2366,9 @@
       <c r="A37" s="1">
         <v>29</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2">
+        <v>8.9</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="E37" s="1">
         <v>29</v>
@@ -2269,7 +2420,9 @@
       <c r="A38" s="1">
         <v>30</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2">
+        <v>8.9</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="E38" s="1">
         <v>30</v>
@@ -2321,7 +2474,9 @@
       <c r="A39" s="1">
         <v>31</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2">
+        <v>8.9</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="E39" s="1">
         <v>31</v>
@@ -2336,7 +2491,9 @@
       <c r="M39" s="1">
         <v>31</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="Q39" s="1">
         <v>31</v>
@@ -2351,12 +2508,16 @@
       <c r="Y39" s="1">
         <v>31</v>
       </c>
-      <c r="Z39" s="2"/>
+      <c r="Z39" s="2">
+        <v>7.8</v>
+      </c>
       <c r="AA39" s="3"/>
       <c r="AC39" s="1">
         <v>31</v>
       </c>
-      <c r="AD39" s="2"/>
+      <c r="AD39" s="10">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="AE39" s="3"/>
       <c r="AG39" s="1">
         <v>31</v>
@@ -2373,7 +2534,9 @@
       <c r="A40" s="1">
         <v>32</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2">
+        <v>8.9</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="E40" s="1">
         <v>32</v>
@@ -2393,12 +2556,16 @@
       <c r="Q40" s="1">
         <v>32</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2">
+        <v>3.6</v>
+      </c>
       <c r="S40" s="3"/>
       <c r="U40" s="1">
         <v>32</v>
       </c>
-      <c r="V40" s="2"/>
+      <c r="V40" s="10">
+        <v>10.5</v>
+      </c>
       <c r="W40" s="3"/>
       <c r="Y40" s="1">
         <v>32</v>
@@ -2418,19 +2585,25 @@
       <c r="AK40" s="1">
         <v>32</v>
       </c>
-      <c r="AL40" s="2"/>
+      <c r="AL40" s="2">
+        <v>3.6</v>
+      </c>
       <c r="AM40" s="3"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>33</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2">
+        <v>8.9</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="E41" s="1">
         <v>33</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="10">
+        <v>10.4</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="I41" s="1">
         <v>33</v>
@@ -2465,7 +2638,9 @@
       <c r="AG41" s="1">
         <v>33</v>
       </c>
-      <c r="AH41" s="2"/>
+      <c r="AH41" s="2">
+        <v>9.6</v>
+      </c>
       <c r="AI41" s="3"/>
       <c r="AK41" s="1">
         <v>33</v>
@@ -2477,7 +2652,9 @@
       <c r="A42" s="1">
         <v>34</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="10">
+        <v>4</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="E42" s="1">
         <v>34</v>
@@ -2529,7 +2706,9 @@
       <c r="A43" s="1">
         <v>35</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="10">
+        <v>4</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="E43" s="1">
         <v>35</v>
@@ -2539,7 +2718,9 @@
       <c r="I43" s="1">
         <v>35</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2">
+        <v>1.9</v>
+      </c>
       <c r="K43" s="3"/>
       <c r="M43" s="1">
         <v>35</v>
@@ -2581,7 +2762,9 @@
       <c r="A44" s="1">
         <v>36</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="10">
+        <v>4</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="E44" s="1">
         <v>36</v>
@@ -2633,7 +2816,9 @@
       <c r="A45" s="1">
         <v>37</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="10">
+        <v>4</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="E45" s="1">
         <v>37</v>
@@ -2685,7 +2870,9 @@
       <c r="A46" s="1">
         <v>38</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="10">
+        <v>4</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="E46" s="1">
         <v>38</v>
@@ -2700,7 +2887,9 @@
       <c r="M46" s="1">
         <v>38</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" s="2">
+        <v>1.4</v>
+      </c>
       <c r="O46" s="3"/>
       <c r="Q46" s="1">
         <v>38</v>
@@ -2710,17 +2899,23 @@
       <c r="U46" s="1">
         <v>38</v>
       </c>
-      <c r="V46" s="2"/>
+      <c r="V46" s="2">
+        <v>1.3</v>
+      </c>
       <c r="W46" s="3"/>
       <c r="Y46" s="1">
         <v>38</v>
       </c>
-      <c r="Z46" s="2"/>
+      <c r="Z46" s="10">
+        <v>1.8</v>
+      </c>
       <c r="AA46" s="3"/>
       <c r="AC46" s="1">
         <v>38</v>
       </c>
-      <c r="AD46" s="2"/>
+      <c r="AD46" s="10">
+        <v>2.8</v>
+      </c>
       <c r="AE46" s="3"/>
       <c r="AG46" s="1">
         <v>38</v>
@@ -2737,12 +2932,16 @@
       <c r="A47" s="1">
         <v>39</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="10">
+        <v>4</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="E47" s="1">
         <v>39</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="I47" s="1">
         <v>39</v>
@@ -2757,7 +2956,9 @@
       <c r="Q47" s="1">
         <v>39</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="R47" s="2">
+        <v>0.6</v>
+      </c>
       <c r="S47" s="3"/>
       <c r="U47" s="1">
         <v>39</v>
@@ -2782,14 +2983,18 @@
       <c r="AK47" s="1">
         <v>39</v>
       </c>
-      <c r="AL47" s="2"/>
+      <c r="AL47" s="2">
+        <v>6.7</v>
+      </c>
       <c r="AM47" s="3"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="10">
+        <v>2.5</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="E48" s="1">
         <v>40</v>
@@ -2829,7 +3034,9 @@
       <c r="AG48" s="1">
         <v>40</v>
       </c>
-      <c r="AH48" s="2"/>
+      <c r="AH48" s="2">
+        <v>2.9</v>
+      </c>
       <c r="AI48" s="3"/>
       <c r="AK48" s="1">
         <v>40</v>
@@ -2841,7 +3048,9 @@
       <c r="A49" s="1">
         <v>41</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="10">
+        <v>2.5</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="E49" s="1">
         <v>41</v>
@@ -2893,7 +3102,9 @@
       <c r="A50" s="1">
         <v>42</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="10">
+        <v>2.5</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="E50" s="1">
         <v>42</v>
@@ -2903,7 +3114,9 @@
       <c r="I50" s="1">
         <v>42</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <v>6</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="M50" s="1">
         <v>42</v>
@@ -2945,7 +3158,9 @@
       <c r="A51" s="1">
         <v>43</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="10">
+        <v>2.5</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="E51" s="1">
         <v>43</v>
@@ -2997,7 +3212,9 @@
       <c r="A52" s="1">
         <v>44</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="10">
+        <v>2.5</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="E52" s="1">
         <v>44</v>
@@ -3027,12 +3244,16 @@
       <c r="Y52" s="1">
         <v>44</v>
       </c>
-      <c r="Z52" s="2"/>
+      <c r="Z52" s="2">
+        <v>6</v>
+      </c>
       <c r="AA52" s="3"/>
       <c r="AC52" s="1">
         <v>44</v>
       </c>
-      <c r="AD52" s="2"/>
+      <c r="AD52" s="10">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="AE52" s="3"/>
       <c r="AG52" s="1">
         <v>44</v>
@@ -3049,7 +3270,9 @@
       <c r="A53" s="1">
         <v>45</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="10">
+        <v>2.5</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="E53" s="1">
         <v>45</v>
@@ -3064,7 +3287,9 @@
       <c r="M53" s="1">
         <v>45</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" s="2">
+        <v>12.2</v>
+      </c>
       <c r="O53" s="3"/>
       <c r="Q53" s="1">
         <v>45</v>
@@ -3074,7 +3299,9 @@
       <c r="U53" s="1">
         <v>45</v>
       </c>
-      <c r="V53" s="2"/>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
       <c r="W53" s="3"/>
       <c r="Y53" s="1">
         <v>45</v>
@@ -3094,19 +3321,25 @@
       <c r="AK53" s="1">
         <v>45</v>
       </c>
-      <c r="AL53" s="2"/>
+      <c r="AL53" s="2">
+        <v>15.4</v>
+      </c>
       <c r="AM53" s="3"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>46</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="10">
+        <v>2.5</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="E54" s="1">
         <v>46</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="10">
+        <v>1.4</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="I54" s="1">
         <v>46</v>
@@ -3141,7 +3374,9 @@
       <c r="AG54" s="1">
         <v>46</v>
       </c>
-      <c r="AH54" s="2"/>
+      <c r="AH54" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AI54" s="3"/>
       <c r="AK54" s="1">
         <v>46</v>
@@ -3153,7 +3388,9 @@
       <c r="A55" s="1">
         <v>47</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="10">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="E55" s="1">
         <v>47</v>
@@ -3173,7 +3410,9 @@
       <c r="Q55" s="1">
         <v>47</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="R55" s="2">
+        <v>3.3</v>
+      </c>
       <c r="S55" s="3"/>
       <c r="U55" s="1">
         <v>47</v>
@@ -3205,7 +3444,9 @@
       <c r="A56" s="1">
         <v>48</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="10">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="E56" s="1">
         <v>48</v>
@@ -3257,7 +3498,9 @@
       <c r="A57" s="1">
         <v>49</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="10">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="E57" s="1">
         <v>49</v>
@@ -3267,7 +3510,9 @@
       <c r="I57" s="1">
         <v>49</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <v>5.5</v>
+      </c>
       <c r="K57" s="3"/>
       <c r="M57" s="1">
         <v>49</v>
@@ -3309,7 +3554,9 @@
       <c r="A58" s="1">
         <v>50</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="10">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="E58" s="1">
         <v>50</v>
@@ -3361,7 +3608,9 @@
       <c r="A59" s="1">
         <v>51</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="10">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="E59" s="1">
         <v>51</v>
@@ -3376,7 +3625,9 @@
       <c r="M59" s="1">
         <v>51</v>
       </c>
-      <c r="N59" s="2"/>
+      <c r="N59" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O59" s="3"/>
       <c r="Q59" s="1">
         <v>51</v>
@@ -3391,12 +3642,16 @@
       <c r="Y59" s="1">
         <v>51</v>
       </c>
-      <c r="Z59" s="2"/>
+      <c r="Z59" s="2">
+        <v>2.6</v>
+      </c>
       <c r="AA59" s="3"/>
       <c r="AC59" s="1">
         <v>51</v>
       </c>
-      <c r="AD59" s="2"/>
+      <c r="AD59" s="10">
+        <v>8.9</v>
+      </c>
       <c r="AE59" s="3"/>
       <c r="AG59" s="1">
         <v>51</v>
@@ -3406,14 +3661,18 @@
       <c r="AK59" s="1">
         <v>51</v>
       </c>
-      <c r="AL59" s="2"/>
+      <c r="AL59" s="2">
+        <v>1.7</v>
+      </c>
       <c r="AM59" s="3"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>52</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="10">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="E60" s="1">
         <v>52</v>
@@ -3438,7 +3697,9 @@
       <c r="U60" s="1">
         <v>52</v>
       </c>
-      <c r="V60" s="2"/>
+      <c r="V60" s="2">
+        <v>8.9</v>
+      </c>
       <c r="W60" s="3"/>
       <c r="Y60" s="1">
         <v>52</v>
@@ -3465,12 +3726,16 @@
       <c r="A61" s="1">
         <v>53</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="10">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="E61" s="1">
         <v>53</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="10">
+        <v>7.7</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="I61" s="1">
         <v>53</v>
@@ -3505,7 +3770,9 @@
       <c r="AG61" s="1">
         <v>53</v>
       </c>
-      <c r="AH61" s="2"/>
+      <c r="AH61" s="2">
+        <v>11.1</v>
+      </c>
       <c r="AI61" s="3"/>
       <c r="AK61" s="1">
         <v>53</v>
@@ -3517,7 +3784,9 @@
       <c r="A62" s="1">
         <v>54</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="10">
+        <v>2.1</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="E62" s="1">
         <v>54</v>
@@ -3537,7 +3806,9 @@
       <c r="Q62" s="1">
         <v>54</v>
       </c>
-      <c r="R62" s="2"/>
+      <c r="R62" s="2">
+        <v>6.7</v>
+      </c>
       <c r="S62" s="3"/>
       <c r="U62" s="1">
         <v>54</v>
@@ -3569,7 +3840,9 @@
       <c r="A63" s="1">
         <v>55</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="10">
+        <v>2.1</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="E63" s="1">
         <v>55</v>
@@ -3621,7 +3894,9 @@
       <c r="A64" s="1">
         <v>56</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="10">
+        <v>2.1</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="E64" s="1">
         <v>56</v>
@@ -3631,7 +3906,9 @@
       <c r="I64" s="1">
         <v>56</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2">
+        <v>1.7</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="M64" s="1">
         <v>56</v>
@@ -3673,7 +3950,9 @@
       <c r="A65" s="1">
         <v>57</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="10">
+        <v>2.1</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="E65" s="1">
         <v>57</v>
@@ -3718,14 +3997,18 @@
       <c r="AK65" s="1">
         <v>57</v>
       </c>
-      <c r="AL65" s="2"/>
+      <c r="AL65" s="2">
+        <v>2.6</v>
+      </c>
       <c r="AM65" s="3"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>58</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="10">
+        <v>2.1</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="E66" s="1">
         <v>58</v>
@@ -3755,12 +4038,16 @@
       <c r="Y66" s="1">
         <v>58</v>
       </c>
-      <c r="Z66" s="2"/>
+      <c r="Z66" s="2">
+        <v>0.4</v>
+      </c>
       <c r="AA66" s="3"/>
       <c r="AC66" s="1">
         <v>58</v>
       </c>
-      <c r="AD66" s="2"/>
+      <c r="AD66" s="10">
+        <v>7.3</v>
+      </c>
       <c r="AE66" s="3"/>
       <c r="AG66" s="1">
         <v>58</v>
@@ -3777,7 +4064,9 @@
       <c r="A67" s="1">
         <v>59</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="10">
+        <v>2.1</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="E67" s="1">
         <v>59</v>
@@ -3792,7 +4081,9 @@
       <c r="M67" s="1">
         <v>59</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" s="2">
+        <v>6</v>
+      </c>
       <c r="O67" s="3"/>
       <c r="Q67" s="1">
         <v>59</v>
@@ -3802,7 +4093,9 @@
       <c r="U67" s="1">
         <v>59</v>
       </c>
-      <c r="V67" s="2"/>
+      <c r="V67" s="2">
+        <v>3.8</v>
+      </c>
       <c r="W67" s="3"/>
       <c r="Y67" s="1">
         <v>59</v>
@@ -3829,12 +4122,16 @@
       <c r="A68" s="1">
         <v>60</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="10">
+        <v>2.1</v>
+      </c>
       <c r="C68" s="3"/>
       <c r="E68" s="1">
         <v>60</v>
       </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="10">
+        <v>1.8</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="I68" s="1">
         <v>60</v>
@@ -3869,7 +4166,9 @@
       <c r="AG68" s="1">
         <v>60</v>
       </c>
-      <c r="AH68" s="2"/>
+      <c r="AH68" s="2">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="AI68" s="3"/>
       <c r="AK68" s="1">
         <v>60</v>
@@ -3881,7 +4180,9 @@
       <c r="A69" s="1">
         <v>61</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="10">
+        <v>1.9</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="E69" s="1">
         <v>61</v>
@@ -3901,7 +4202,9 @@
       <c r="Q69" s="1">
         <v>61</v>
       </c>
-      <c r="R69" s="2"/>
+      <c r="R69" s="2">
+        <v>0.3</v>
+      </c>
       <c r="S69" s="3"/>
       <c r="U69" s="1">
         <v>61</v>
@@ -3933,7 +4236,9 @@
       <c r="A70" s="1">
         <v>62</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="10">
+        <v>1.9</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="E70" s="1">
         <v>62</v>
@@ -3985,7 +4290,9 @@
       <c r="A71" s="1">
         <v>63</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="10">
+        <v>1.9</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="E71" s="1">
         <v>63</v>
@@ -3995,7 +4302,9 @@
       <c r="I71" s="1">
         <v>63</v>
       </c>
-      <c r="J71" s="2"/>
+      <c r="J71" s="2">
+        <v>5.5</v>
+      </c>
       <c r="K71" s="3"/>
       <c r="M71" s="1">
         <v>63</v>
@@ -4030,14 +4339,18 @@
       <c r="AK71" s="1">
         <v>63</v>
       </c>
-      <c r="AL71" s="2"/>
+      <c r="AL71" s="2">
+        <v>10.1</v>
+      </c>
       <c r="AM71" s="3"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>64</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="10">
+        <v>1.9</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="E72" s="1">
         <v>64</v>
@@ -4067,7 +4380,9 @@
       <c r="Y72" s="1">
         <v>64</v>
       </c>
-      <c r="Z72" s="2"/>
+      <c r="Z72" s="2">
+        <v>5.6</v>
+      </c>
       <c r="AA72" s="3"/>
       <c r="AC72" s="1">
         <v>64</v>
@@ -4089,7 +4404,9 @@
       <c r="A73" s="1">
         <v>65</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="10">
+        <v>1.9</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="E73" s="1">
         <v>65</v>
@@ -4114,7 +4431,9 @@
       <c r="U73" s="1">
         <v>65</v>
       </c>
-      <c r="V73" s="2"/>
+      <c r="V73" s="2">
+        <v>2.4</v>
+      </c>
       <c r="W73" s="3"/>
       <c r="Y73" s="1">
         <v>65</v>
@@ -4124,7 +4443,9 @@
       <c r="AC73" s="1">
         <v>65</v>
       </c>
-      <c r="AD73" s="2"/>
+      <c r="AD73" s="2">
+        <v>7.1</v>
+      </c>
       <c r="AE73" s="3"/>
       <c r="AG73" s="1">
         <v>65</v>
@@ -4141,7 +4462,9 @@
       <c r="A74" s="1">
         <v>66</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="10">
+        <v>1.9</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="E74" s="1">
         <v>66</v>
@@ -4156,7 +4479,9 @@
       <c r="M74" s="1">
         <v>66</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" s="2">
+        <v>4.5</v>
+      </c>
       <c r="O74" s="3"/>
       <c r="Q74" s="1">
         <v>66</v>
@@ -4193,12 +4518,16 @@
       <c r="A75" s="1">
         <v>67</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="10">
+        <v>1.9</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="E75" s="1">
         <v>67</v>
       </c>
-      <c r="F75" s="2"/>
+      <c r="F75" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="I75" s="1">
         <v>67</v>
@@ -4233,7 +4562,9 @@
       <c r="AG75" s="1">
         <v>67</v>
       </c>
-      <c r="AH75" s="2"/>
+      <c r="AH75" s="2">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="AI75" s="3"/>
       <c r="AK75" s="1">
         <v>67</v>
@@ -4245,7 +4576,9 @@
       <c r="A76" s="1">
         <v>68</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="10">
+        <v>8.4</v>
+      </c>
       <c r="C76" s="3"/>
       <c r="E76" s="1">
         <v>68</v>
@@ -4265,7 +4598,9 @@
       <c r="Q76" s="1">
         <v>68</v>
       </c>
-      <c r="R76" s="2"/>
+      <c r="R76" s="2">
+        <v>4.7</v>
+      </c>
       <c r="S76" s="3"/>
       <c r="U76" s="1">
         <v>68</v>
@@ -4297,7 +4632,9 @@
       <c r="A77" s="1">
         <v>69</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="10">
+        <v>8.4</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="E77" s="1">
         <v>69</v>
@@ -4349,7 +4686,9 @@
       <c r="A78" s="1">
         <v>70</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="10">
+        <v>8.4</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="E78" s="1">
         <v>70</v>
@@ -4379,7 +4718,9 @@
       <c r="Y78" s="1">
         <v>70</v>
       </c>
-      <c r="Z78" s="2"/>
+      <c r="Z78" s="2">
+        <v>3.2</v>
+      </c>
       <c r="AA78" s="3"/>
       <c r="AC78" s="1">
         <v>70</v>
@@ -4394,14 +4735,18 @@
       <c r="AK78" s="1">
         <v>70</v>
       </c>
-      <c r="AL78" s="2"/>
+      <c r="AL78" s="2">
+        <v>3.2</v>
+      </c>
       <c r="AM78" s="3"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>71</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="10">
+        <v>8.4</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="E79" s="1">
         <v>71</v>
@@ -4411,7 +4756,9 @@
       <c r="I79" s="1">
         <v>71</v>
       </c>
-      <c r="J79" s="2"/>
+      <c r="J79" s="2">
+        <v>5.8</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="M79" s="1">
         <v>71</v>
@@ -4436,7 +4783,9 @@
       <c r="AC79" s="1">
         <v>71</v>
       </c>
-      <c r="AD79" s="2"/>
+      <c r="AD79" s="2">
+        <v>9.9</v>
+      </c>
       <c r="AE79" s="3"/>
       <c r="AG79" s="1">
         <v>71</v>
@@ -4453,7 +4802,9 @@
       <c r="A80" s="1">
         <v>72</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="10">
+        <v>8.4</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="E80" s="1">
         <v>72</v>
@@ -4468,7 +4819,9 @@
       <c r="M80" s="1">
         <v>72</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="N80" s="2">
+        <v>1.6</v>
+      </c>
       <c r="O80" s="3"/>
       <c r="Q80" s="1">
         <v>72</v>
@@ -4478,7 +4831,9 @@
       <c r="U80" s="1">
         <v>72</v>
       </c>
-      <c r="V80" s="2"/>
+      <c r="V80" s="2">
+        <v>7.5</v>
+      </c>
       <c r="W80" s="3"/>
       <c r="Y80" s="1">
         <v>72</v>
@@ -4505,7 +4860,9 @@
       <c r="A81" s="1">
         <v>73</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="10">
+        <v>8.4</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="E81" s="1">
         <v>73</v>
@@ -4557,12 +4914,16 @@
       <c r="A82" s="1">
         <v>74</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="10">
+        <v>8.4</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="E82" s="1">
         <v>74</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="10">
+        <v>10.199999999999999</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="I82" s="1">
         <v>74</v>
@@ -4577,7 +4938,9 @@
       <c r="Q82" s="1">
         <v>74</v>
       </c>
-      <c r="R82" s="2"/>
+      <c r="R82" s="2">
+        <v>7.2</v>
+      </c>
       <c r="S82" s="3"/>
       <c r="U82" s="1">
         <v>74</v>
@@ -4597,7 +4960,9 @@
       <c r="AG82" s="1">
         <v>74</v>
       </c>
-      <c r="AH82" s="2"/>
+      <c r="AH82" s="2">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="AI82" s="3"/>
       <c r="AK82" s="1">
         <v>74</v>
@@ -4609,7 +4974,9 @@
       <c r="A83" s="1">
         <v>75</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="10">
+        <v>1.5</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="E83" s="1">
         <v>75</v>
@@ -4691,7 +5058,9 @@
       <c r="Y84" s="1">
         <v>76</v>
       </c>
-      <c r="Z84" s="2"/>
+      <c r="Z84" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="AA84" s="3"/>
       <c r="AC84" s="1">
         <v>76</v>
@@ -4706,7 +5075,9 @@
       <c r="AK84" s="1">
         <v>76</v>
       </c>
-      <c r="AL84" s="2"/>
+      <c r="AL84" s="2">
+        <v>1.9</v>
+      </c>
       <c r="AM84" s="3"/>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
@@ -4723,7 +5094,9 @@
       <c r="I85" s="1">
         <v>77</v>
       </c>
-      <c r="J85" s="2"/>
+      <c r="J85" s="2">
+        <v>2.1</v>
+      </c>
       <c r="K85" s="3"/>
       <c r="M85" s="1">
         <v>77</v>
@@ -4800,7 +5173,9 @@
       <c r="AC86" s="1">
         <v>78</v>
       </c>
-      <c r="AD86" s="2"/>
+      <c r="AD86" s="2">
+        <v>7.5</v>
+      </c>
       <c r="AE86" s="3"/>
       <c r="AG86" s="1">
         <v>78</v>
@@ -4832,7 +5207,9 @@
       <c r="M87" s="1">
         <v>79</v>
       </c>
-      <c r="N87" s="2"/>
+      <c r="N87" s="2">
+        <v>3.4</v>
+      </c>
       <c r="O87" s="3"/>
       <c r="Q87" s="1">
         <v>79</v>
@@ -4842,7 +5219,9 @@
       <c r="U87" s="1">
         <v>79</v>
       </c>
-      <c r="V87" s="2"/>
+      <c r="V87" s="2">
+        <v>0.7</v>
+      </c>
       <c r="W87" s="3"/>
       <c r="Y87" s="1">
         <v>79</v>
@@ -4889,7 +5268,9 @@
       <c r="Q88" s="1">
         <v>80</v>
       </c>
-      <c r="R88" s="2"/>
+      <c r="R88" s="2">
+        <v>0.3</v>
+      </c>
       <c r="S88" s="3"/>
       <c r="U88" s="1">
         <v>80</v>
@@ -4921,12 +5302,16 @@
       <c r="A89" s="1">
         <v>81</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="2">
+        <v>2.1</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="E89" s="1">
         <v>81</v>
       </c>
-      <c r="F89" s="2"/>
+      <c r="F89" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="I89" s="1">
         <v>81</v>
@@ -4961,7 +5346,9 @@
       <c r="AG89" s="1">
         <v>81</v>
       </c>
-      <c r="AH89" s="2"/>
+      <c r="AH89" s="2">
+        <v>0.9</v>
+      </c>
       <c r="AI89" s="3"/>
       <c r="AK89" s="1">
         <v>81</v>
@@ -4983,7 +5370,9 @@
       <c r="I90" s="1">
         <v>82</v>
       </c>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K90" s="3"/>
       <c r="M90" s="1">
         <v>82</v>
@@ -5055,7 +5444,9 @@
       <c r="Y91" s="1">
         <v>83</v>
       </c>
-      <c r="Z91" s="2"/>
+      <c r="Z91" s="2">
+        <v>5.2</v>
+      </c>
       <c r="AA91" s="3"/>
       <c r="AC91" s="1">
         <v>83</v>
@@ -5070,7 +5461,9 @@
       <c r="AK91" s="1">
         <v>83</v>
       </c>
-      <c r="AL91" s="2"/>
+      <c r="AL91" s="2">
+        <v>17</v>
+      </c>
       <c r="AM91" s="3"/>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.25">
@@ -5112,7 +5505,9 @@
       <c r="AC92" s="1">
         <v>84</v>
       </c>
-      <c r="AD92" s="2"/>
+      <c r="AD92" s="2">
+        <v>2.4</v>
+      </c>
       <c r="AE92" s="3"/>
       <c r="AG92" s="1">
         <v>84</v>
@@ -5154,7 +5549,9 @@
       <c r="U93" s="1">
         <v>85</v>
       </c>
-      <c r="V93" s="2"/>
+      <c r="V93" s="2">
+        <v>2.6</v>
+      </c>
       <c r="W93" s="3"/>
       <c r="Y93" s="1">
         <v>85</v>
@@ -5196,7 +5593,9 @@
       <c r="M94" s="1">
         <v>86</v>
       </c>
-      <c r="N94" s="2"/>
+      <c r="N94" s="2">
+        <v>5.6</v>
+      </c>
       <c r="O94" s="3"/>
       <c r="Q94" s="1">
         <v>86</v>
@@ -5233,7 +5632,9 @@
       <c r="A95" s="1">
         <v>87</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="2">
+        <v>7.4</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="E95" s="1">
         <v>87</v>
@@ -5290,7 +5691,9 @@
       <c r="E96" s="1">
         <v>88</v>
       </c>
-      <c r="F96" s="2"/>
+      <c r="F96" s="2">
+        <v>2.8</v>
+      </c>
       <c r="G96" s="3"/>
       <c r="I96" s="1">
         <v>88</v>
@@ -5305,7 +5708,9 @@
       <c r="Q96" s="1">
         <v>88</v>
       </c>
-      <c r="R96" s="2"/>
+      <c r="R96" s="2">
+        <v>5.2</v>
+      </c>
       <c r="S96" s="3"/>
       <c r="U96" s="1">
         <v>88</v>
@@ -5325,7 +5730,9 @@
       <c r="AG96" s="1">
         <v>88</v>
       </c>
-      <c r="AH96" s="2"/>
+      <c r="AH96" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="AI96" s="3"/>
       <c r="AK96" s="1">
         <v>88</v>
@@ -5347,7 +5754,9 @@
       <c r="I97" s="1">
         <v>89</v>
       </c>
-      <c r="J97" s="2"/>
+      <c r="J97" s="2">
+        <v>10.5</v>
+      </c>
       <c r="K97" s="3"/>
       <c r="M97" s="1">
         <v>89</v>
@@ -5419,7 +5828,9 @@
       <c r="Y98" s="1">
         <v>90</v>
       </c>
-      <c r="Z98" s="2"/>
+      <c r="Z98" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AA98" s="3"/>
       <c r="AC98" s="1">
         <v>90</v>
@@ -5434,7 +5845,9 @@
       <c r="AK98" s="1">
         <v>90</v>
       </c>
-      <c r="AL98" s="2"/>
+      <c r="AL98" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="AM98" s="3"/>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.25">
@@ -5456,7 +5869,9 @@
       <c r="M99" s="1">
         <v>91</v>
       </c>
-      <c r="N99" s="2"/>
+      <c r="N99" s="2">
+        <v>2</v>
+      </c>
       <c r="O99" s="3"/>
       <c r="Q99" s="1">
         <v>91</v>
@@ -5476,7 +5891,9 @@
       <c r="AC99" s="1">
         <v>91</v>
       </c>
-      <c r="AD99" s="2"/>
+      <c r="AD99" s="2">
+        <v>3.7</v>
+      </c>
       <c r="AE99" s="3"/>
       <c r="AG99" s="1">
         <v>91</v>
@@ -5518,7 +5935,9 @@
       <c r="U100" s="1">
         <v>92</v>
       </c>
-      <c r="V100" s="2"/>
+      <c r="V100" s="2">
+        <v>9.5</v>
+      </c>
       <c r="W100" s="3"/>
       <c r="Y100" s="1">
         <v>92</v>
@@ -5597,7 +6016,9 @@
       <c r="A102" s="1">
         <v>94</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2">
+        <v>2.6</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="E102" s="1">
         <v>94</v>
@@ -5654,7 +6075,9 @@
       <c r="E103" s="1">
         <v>95</v>
       </c>
-      <c r="F103" s="2"/>
+      <c r="F103" s="2">
+        <v>7.1</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="I103" s="1">
         <v>95</v>
@@ -5689,7 +6112,9 @@
       <c r="AG103" s="1">
         <v>95</v>
       </c>
-      <c r="AH103" s="2"/>
+      <c r="AH103" s="2">
+        <v>9.6</v>
+      </c>
       <c r="AI103" s="3"/>
       <c r="AK103" s="1">
         <v>95</v>
@@ -5711,7 +6136,9 @@
       <c r="I104" s="1">
         <v>96</v>
       </c>
-      <c r="J104" s="2"/>
+      <c r="J104" s="2">
+        <v>0.3</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="M104" s="1">
         <v>96</v>
@@ -5746,7 +6173,9 @@
       <c r="AK104" s="1">
         <v>96</v>
       </c>
-      <c r="AL104" s="2"/>
+      <c r="AL104" s="2">
+        <v>1.3</v>
+      </c>
       <c r="AM104" s="3"/>
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.25">
@@ -5783,7 +6212,9 @@
       <c r="Y105" s="1">
         <v>97</v>
       </c>
-      <c r="Z105" s="2"/>
+      <c r="Z105" s="2">
+        <v>0.2</v>
+      </c>
       <c r="AA105" s="3"/>
       <c r="AC105" s="1">
         <v>97</v>
@@ -5820,7 +6251,9 @@
       <c r="M106" s="1">
         <v>98</v>
       </c>
-      <c r="N106" s="2"/>
+      <c r="N106" s="2">
+        <v>0.8</v>
+      </c>
       <c r="O106" s="3"/>
       <c r="Q106" s="1">
         <v>98</v>
@@ -5840,7 +6273,9 @@
       <c r="AC106" s="1">
         <v>98</v>
       </c>
-      <c r="AD106" s="2"/>
+      <c r="AD106" s="2">
+        <v>10.9</v>
+      </c>
       <c r="AE106" s="3"/>
       <c r="AG106" s="1">
         <v>98</v>
@@ -5882,7 +6317,9 @@
       <c r="U107" s="1">
         <v>99</v>
       </c>
-      <c r="V107" s="2"/>
+      <c r="V107" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="W107" s="3"/>
       <c r="Y107" s="1">
         <v>99</v>
@@ -5909,7 +6346,9 @@
       <c r="A108" s="1">
         <v>100</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
       <c r="C108" s="3"/>
       <c r="E108" s="1">
         <v>100</v>
@@ -6018,7 +6457,9 @@
       <c r="E110" s="1">
         <v>102</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2">
+        <v>1.8</v>
+      </c>
       <c r="G110" s="3"/>
       <c r="I110" s="1">
         <v>102</v>
@@ -6053,7 +6494,9 @@
       <c r="AG110" s="1">
         <v>102</v>
       </c>
-      <c r="AH110" s="2"/>
+      <c r="AH110" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AI110" s="3"/>
       <c r="AK110" s="1">
         <v>102</v>
@@ -6075,7 +6518,9 @@
       <c r="I111" s="1">
         <v>103</v>
       </c>
-      <c r="J111" s="2"/>
+      <c r="J111" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="M111" s="1">
         <v>103</v>
@@ -6085,7 +6530,9 @@
       <c r="Q111" s="1">
         <v>103</v>
       </c>
-      <c r="R111" s="2"/>
+      <c r="R111" s="2">
+        <v>1.4</v>
+      </c>
       <c r="S111" s="3"/>
       <c r="U111" s="1">
         <v>103</v>
@@ -6095,7 +6542,9 @@
       <c r="Y111" s="1">
         <v>103</v>
       </c>
-      <c r="Z111" s="2"/>
+      <c r="Z111" s="2">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="AA111" s="3"/>
       <c r="AC111" s="1">
         <v>103</v>
@@ -6110,7 +6559,9 @@
       <c r="AK111" s="1">
         <v>103</v>
       </c>
-      <c r="AL111" s="2"/>
+      <c r="AL111" s="2">
+        <v>10.9</v>
+      </c>
       <c r="AM111" s="3"/>
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.25">
@@ -6152,7 +6603,9 @@
       <c r="AC112" s="1">
         <v>104</v>
       </c>
-      <c r="AD112" s="2"/>
+      <c r="AD112" s="2">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="AE112" s="3"/>
       <c r="AG112" s="1">
         <v>104</v>
@@ -6184,7 +6637,9 @@
       <c r="M113" s="1">
         <v>105</v>
       </c>
-      <c r="N113" s="2"/>
+      <c r="N113" s="2">
+        <v>7.8</v>
+      </c>
       <c r="O113" s="3"/>
       <c r="Q113" s="1">
         <v>105</v>
@@ -6221,7 +6676,9 @@
       <c r="A114" s="1">
         <v>106</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2">
+        <v>7.3</v>
+      </c>
       <c r="C114" s="3"/>
       <c r="E114" s="1">
         <v>106</v>
@@ -6246,7 +6703,9 @@
       <c r="U114" s="1">
         <v>106</v>
       </c>
-      <c r="V114" s="2"/>
+      <c r="V114" s="2">
+        <v>5.8</v>
+      </c>
       <c r="W114" s="3"/>
       <c r="Y114" s="1">
         <v>106</v>
@@ -6382,7 +6841,9 @@
       <c r="E117" s="1">
         <v>109</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2">
+        <v>7.4</v>
+      </c>
       <c r="G117" s="3"/>
       <c r="I117" s="1">
         <v>109</v>
@@ -6417,7 +6878,9 @@
       <c r="AG117" s="1">
         <v>109</v>
       </c>
-      <c r="AH117" s="2"/>
+      <c r="AH117" s="2">
+        <v>1</v>
+      </c>
       <c r="AI117" s="3"/>
       <c r="AK117" s="1">
         <v>109</v>
@@ -6439,7 +6902,9 @@
       <c r="I118" s="1">
         <v>110</v>
       </c>
-      <c r="J118" s="2"/>
+      <c r="J118" s="2">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="M118" s="1">
         <v>110</v>
@@ -6449,7 +6914,9 @@
       <c r="Q118" s="1">
         <v>110</v>
       </c>
-      <c r="R118" s="2"/>
+      <c r="R118" s="2">
+        <v>10.4</v>
+      </c>
       <c r="S118" s="3"/>
       <c r="U118" s="1">
         <v>110</v>
@@ -6459,7 +6926,9 @@
       <c r="Y118" s="1">
         <v>110</v>
       </c>
-      <c r="Z118" s="2"/>
+      <c r="Z118" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AA118" s="3"/>
       <c r="AC118" s="1">
         <v>110</v>
@@ -6474,7 +6943,9 @@
       <c r="AK118" s="1">
         <v>110</v>
       </c>
-      <c r="AL118" s="2"/>
+      <c r="AL118" s="2">
+        <v>1.3</v>
+      </c>
       <c r="AM118" s="3"/>
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.25">
@@ -6548,7 +7019,9 @@
       <c r="M120" s="1">
         <v>112</v>
       </c>
-      <c r="N120" s="2"/>
+      <c r="N120" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="O120" s="3"/>
       <c r="Q120" s="1">
         <v>112</v>
@@ -6558,7 +7031,9 @@
       <c r="U120" s="1">
         <v>112</v>
       </c>
-      <c r="V120" s="2"/>
+      <c r="V120" s="2">
+        <v>4.5</v>
+      </c>
       <c r="W120" s="3"/>
       <c r="Y120" s="1">
         <v>112</v>
@@ -6568,7 +7043,9 @@
       <c r="AC120" s="1">
         <v>112</v>
       </c>
-      <c r="AD120" s="2"/>
+      <c r="AD120" s="2">
+        <v>4.3</v>
+      </c>
       <c r="AE120" s="3"/>
       <c r="AG120" s="1">
         <v>112</v>
@@ -6585,7 +7062,9 @@
       <c r="A121" s="1">
         <v>113</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="2">
+        <v>2.1</v>
+      </c>
       <c r="C121" s="3"/>
       <c r="E121" s="1">
         <v>113</v>
@@ -6694,7 +7173,9 @@
       <c r="E123" s="1">
         <v>115</v>
       </c>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="I123" s="1">
         <v>115</v>
@@ -6729,7 +7210,9 @@
       <c r="AG123" s="1">
         <v>115</v>
       </c>
-      <c r="AH123" s="2"/>
+      <c r="AH123" s="2">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="AI123" s="3"/>
       <c r="AK123" s="1">
         <v>115</v>
@@ -6751,7 +7234,9 @@
       <c r="I124" s="1">
         <v>116</v>
       </c>
-      <c r="J124" s="2"/>
+      <c r="J124" s="2">
+        <v>0.7</v>
+      </c>
       <c r="K124" s="3"/>
       <c r="M124" s="1">
         <v>116</v>
@@ -6786,7 +7271,9 @@
       <c r="AK124" s="1">
         <v>116</v>
       </c>
-      <c r="AL124" s="2"/>
+      <c r="AL124" s="2">
+        <v>6.3</v>
+      </c>
       <c r="AM124" s="3"/>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.25">
@@ -6813,7 +7300,9 @@
       <c r="Q125" s="1">
         <v>117</v>
       </c>
-      <c r="R125" s="2"/>
+      <c r="R125" s="2">
+        <v>1.2</v>
+      </c>
       <c r="S125" s="3"/>
       <c r="U125" s="1">
         <v>117</v>
@@ -6823,7 +7312,9 @@
       <c r="Y125" s="1">
         <v>117</v>
       </c>
-      <c r="Z125" s="2"/>
+      <c r="Z125" s="2">
+        <v>0.4</v>
+      </c>
       <c r="AA125" s="3"/>
       <c r="AC125" s="1">
         <v>117</v>
@@ -6860,7 +7351,9 @@
       <c r="M126" s="1">
         <v>118</v>
       </c>
-      <c r="N126" s="2"/>
+      <c r="N126" s="2">
+        <v>3.1</v>
+      </c>
       <c r="O126" s="3"/>
       <c r="Q126" s="1">
         <v>118</v>
@@ -6897,7 +7390,9 @@
       <c r="A127" s="1">
         <v>119</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="2">
+        <v>13</v>
+      </c>
       <c r="C127" s="3"/>
       <c r="E127" s="1">
         <v>119</v>
@@ -6922,7 +7417,9 @@
       <c r="U127" s="1">
         <v>119</v>
       </c>
-      <c r="V127" s="2"/>
+      <c r="V127" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="W127" s="3"/>
       <c r="Y127" s="1">
         <v>119</v>
@@ -6984,7 +7481,9 @@
       <c r="AC128" s="1">
         <v>120</v>
       </c>
-      <c r="AD128" s="2"/>
+      <c r="AD128" s="2">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="AE128" s="3"/>
       <c r="AG128" s="1">
         <v>120</v>
@@ -7058,7 +7557,9 @@
       <c r="E130" s="1">
         <v>122</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>3.3</v>
+      </c>
       <c r="G130" s="3"/>
       <c r="I130" s="1">
         <v>122</v>
@@ -7093,12 +7594,16 @@
       <c r="AG130" s="1">
         <v>122</v>
       </c>
-      <c r="AH130" s="2"/>
+      <c r="AH130" s="2">
+        <v>5.4</v>
+      </c>
       <c r="AI130" s="3"/>
       <c r="AK130" s="1">
         <v>122</v>
       </c>
-      <c r="AL130" s="2"/>
+      <c r="AL130" s="10">
+        <v>11.6</v>
+      </c>
       <c r="AM130" s="3"/>
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.25">
@@ -7115,7 +7620,9 @@
       <c r="I131" s="1">
         <v>123</v>
       </c>
-      <c r="J131" s="2"/>
+      <c r="J131" s="2">
+        <v>3</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="M131" s="1">
         <v>123</v>
@@ -7177,7 +7684,9 @@
       <c r="Q132" s="1">
         <v>124</v>
       </c>
-      <c r="R132" s="2"/>
+      <c r="R132" s="2">
+        <v>2.7</v>
+      </c>
       <c r="S132" s="3"/>
       <c r="U132" s="1">
         <v>124</v>
@@ -7187,7 +7696,9 @@
       <c r="Y132" s="1">
         <v>124</v>
       </c>
-      <c r="Z132" s="2"/>
+      <c r="Z132" s="2">
+        <v>2.7</v>
+      </c>
       <c r="AA132" s="3"/>
       <c r="AC132" s="1">
         <v>124</v>
@@ -7224,7 +7735,9 @@
       <c r="M133" s="1">
         <v>125</v>
       </c>
-      <c r="N133" s="2"/>
+      <c r="N133" s="2">
+        <v>6.9</v>
+      </c>
       <c r="O133" s="3"/>
       <c r="Q133" s="1">
         <v>125</v>
@@ -7261,7 +7774,9 @@
       <c r="A134" s="1">
         <v>126</v>
       </c>
-      <c r="B134" s="2"/>
+      <c r="B134" s="2">
+        <v>16.3</v>
+      </c>
       <c r="C134" s="3"/>
       <c r="E134" s="1">
         <v>126</v>
@@ -7286,7 +7801,9 @@
       <c r="U134" s="1">
         <v>126</v>
       </c>
-      <c r="V134" s="2"/>
+      <c r="V134" s="2">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="W134" s="3"/>
       <c r="Y134" s="1">
         <v>126</v>
@@ -7348,7 +7865,9 @@
       <c r="AC135" s="1">
         <v>127</v>
       </c>
-      <c r="AD135" s="2"/>
+      <c r="AD135" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AE135" s="3"/>
       <c r="AG135" s="1">
         <v>127</v>
@@ -7405,12 +7924,16 @@
       <c r="AG136" s="1">
         <v>128</v>
       </c>
-      <c r="AH136" s="2"/>
+      <c r="AH136" s="2">
+        <v>1</v>
+      </c>
       <c r="AI136" s="3"/>
       <c r="AK136" s="1">
         <v>128</v>
       </c>
-      <c r="AL136" s="2"/>
+      <c r="AL136" s="10">
+        <v>2</v>
+      </c>
       <c r="AM136" s="3"/>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.25">
@@ -7422,7 +7945,9 @@
       <c r="E137" s="1">
         <v>129</v>
       </c>
-      <c r="F137" s="2"/>
+      <c r="F137" s="2">
+        <v>5.9</v>
+      </c>
       <c r="G137" s="3"/>
       <c r="I137" s="1">
         <v>129</v>
@@ -7479,7 +8004,9 @@
       <c r="I138" s="1">
         <v>130</v>
       </c>
-      <c r="J138" s="2"/>
+      <c r="J138" s="2">
+        <v>7.5</v>
+      </c>
       <c r="K138" s="3"/>
       <c r="M138" s="1">
         <v>130</v>
@@ -7551,7 +8078,9 @@
       <c r="Y139" s="1">
         <v>131</v>
       </c>
-      <c r="Z139" s="2"/>
+      <c r="Z139" s="2">
+        <v>7.2</v>
+      </c>
       <c r="AA139" s="3"/>
       <c r="AC139" s="1">
         <v>131</v>
@@ -7588,12 +8117,16 @@
       <c r="M140" s="1">
         <v>132</v>
       </c>
-      <c r="N140" s="2"/>
+      <c r="N140" s="2">
+        <v>1.7</v>
+      </c>
       <c r="O140" s="3"/>
       <c r="Q140" s="1">
         <v>132</v>
       </c>
-      <c r="R140" s="2"/>
+      <c r="R140" s="10">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="S140" s="3"/>
       <c r="U140" s="1">
         <v>132</v>
@@ -7625,7 +8158,9 @@
       <c r="A141" s="1">
         <v>133</v>
       </c>
-      <c r="B141" s="2"/>
+      <c r="B141" s="2">
+        <v>13</v>
+      </c>
       <c r="C141" s="3"/>
       <c r="E141" s="1">
         <v>133</v>
@@ -7650,7 +8185,9 @@
       <c r="U141" s="1">
         <v>133</v>
       </c>
-      <c r="V141" s="2"/>
+      <c r="V141" s="2">
+        <v>3.9</v>
+      </c>
       <c r="W141" s="3"/>
       <c r="Y141" s="1">
         <v>133</v>
@@ -7712,7 +8249,9 @@
       <c r="AC142" s="1">
         <v>134</v>
       </c>
-      <c r="AD142" s="2"/>
+      <c r="AD142" s="2">
+        <v>6.1</v>
+      </c>
       <c r="AE142" s="3"/>
       <c r="AG142" s="1">
         <v>134</v>
@@ -7739,7 +8278,9 @@
       <c r="I143" s="1">
         <v>135</v>
       </c>
-      <c r="J143" s="2"/>
+      <c r="J143" s="2">
+        <v>3.6</v>
+      </c>
       <c r="K143" s="3"/>
       <c r="M143" s="1">
         <v>135</v>
@@ -7769,12 +8310,16 @@
       <c r="AG143" s="1">
         <v>135</v>
       </c>
-      <c r="AH143" s="2"/>
+      <c r="AH143" s="2">
+        <v>8.4</v>
+      </c>
       <c r="AI143" s="3"/>
       <c r="AK143" s="1">
         <v>135</v>
       </c>
-      <c r="AL143" s="2"/>
+      <c r="AL143" s="10">
+        <v>4.2</v>
+      </c>
       <c r="AM143" s="3"/>
     </row>
     <row r="144" spans="1:39" x14ac:dyDescent="0.25">
@@ -7786,7 +8331,9 @@
       <c r="E144" s="1">
         <v>136</v>
       </c>
-      <c r="F144" s="2"/>
+      <c r="F144" s="2">
+        <v>5.5</v>
+      </c>
       <c r="G144" s="3"/>
       <c r="I144" s="1">
         <v>136</v>
@@ -7915,7 +8462,9 @@
       <c r="Y146" s="1">
         <v>138</v>
       </c>
-      <c r="Z146" s="2"/>
+      <c r="Z146" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AA146" s="3"/>
       <c r="AC146" s="1">
         <v>138</v>
@@ -7937,7 +8486,9 @@
       <c r="A147" s="1">
         <v>139</v>
       </c>
-      <c r="B147" s="2"/>
+      <c r="B147" s="2">
+        <v>5.4</v>
+      </c>
       <c r="C147" s="3"/>
       <c r="E147" s="1">
         <v>139</v>
@@ -7952,12 +8503,16 @@
       <c r="M147" s="1">
         <v>139</v>
       </c>
-      <c r="N147" s="2"/>
+      <c r="N147" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O147" s="3"/>
       <c r="Q147" s="1">
         <v>139</v>
       </c>
-      <c r="R147" s="2"/>
+      <c r="R147" s="10">
+        <v>2.1</v>
+      </c>
       <c r="S147" s="3"/>
       <c r="U147" s="1">
         <v>139</v>
@@ -8014,7 +8569,9 @@
       <c r="U148" s="1">
         <v>140</v>
       </c>
-      <c r="V148" s="2"/>
+      <c r="V148" s="2">
+        <v>2.8</v>
+      </c>
       <c r="W148" s="3"/>
       <c r="Y148" s="1">
         <v>140</v>
@@ -8076,17 +8633,23 @@
       <c r="AC149" s="1">
         <v>141</v>
       </c>
-      <c r="AD149" s="2"/>
+      <c r="AD149" s="2">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="AE149" s="3"/>
       <c r="AG149" s="1">
         <v>141</v>
       </c>
-      <c r="AH149" s="2"/>
+      <c r="AH149" s="10">
+        <v>0.3</v>
+      </c>
       <c r="AI149" s="3"/>
       <c r="AK149" s="1">
         <v>141</v>
       </c>
-      <c r="AL149" s="2"/>
+      <c r="AL149" s="10">
+        <v>7.7</v>
+      </c>
       <c r="AM149" s="3"/>
     </row>
     <row r="150" spans="1:39" x14ac:dyDescent="0.25">
@@ -8098,12 +8661,16 @@
       <c r="E150" s="1">
         <v>142</v>
       </c>
-      <c r="F150" s="2"/>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
       <c r="G150" s="3"/>
       <c r="I150" s="1">
         <v>142</v>
       </c>
-      <c r="J150" s="2"/>
+      <c r="J150" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="K150" s="3"/>
       <c r="M150" s="1">
         <v>142</v>
@@ -8227,7 +8794,9 @@
       <c r="Y152" s="1">
         <v>144</v>
       </c>
-      <c r="Z152" s="2"/>
+      <c r="Z152" s="2">
+        <v>4.7</v>
+      </c>
       <c r="AA152" s="3"/>
       <c r="AC152" s="1">
         <v>144</v>
@@ -8301,7 +8870,9 @@
       <c r="A154" s="1">
         <v>146</v>
       </c>
-      <c r="B154" s="2"/>
+      <c r="B154" s="2">
+        <v>2</v>
+      </c>
       <c r="C154" s="3"/>
       <c r="E154" s="1">
         <v>146</v>
@@ -8316,12 +8887,16 @@
       <c r="M154" s="1">
         <v>146</v>
       </c>
-      <c r="N154" s="2"/>
+      <c r="N154" s="2">
+        <v>8.1</v>
+      </c>
       <c r="O154" s="3"/>
       <c r="Q154" s="1">
         <v>146</v>
       </c>
-      <c r="R154" s="2"/>
+      <c r="R154" s="10">
+        <v>0.5</v>
+      </c>
       <c r="S154" s="3"/>
       <c r="U154" s="1">
         <v>146</v>
@@ -8378,7 +8953,9 @@
       <c r="U155" s="1">
         <v>147</v>
       </c>
-      <c r="V155" s="2"/>
+      <c r="V155" s="2">
+        <v>5</v>
+      </c>
       <c r="W155" s="3"/>
       <c r="Y155" s="1">
         <v>147</v>
@@ -8398,7 +8975,9 @@
       <c r="AK155" s="1">
         <v>147</v>
       </c>
-      <c r="AL155" s="2"/>
+      <c r="AL155" s="2">
+        <v>6.1</v>
+      </c>
       <c r="AM155" s="3"/>
     </row>
     <row r="156" spans="1:39" x14ac:dyDescent="0.25">
@@ -8445,7 +9024,9 @@
       <c r="AG156" s="1">
         <v>148</v>
       </c>
-      <c r="AH156" s="2"/>
+      <c r="AH156" s="2">
+        <v>6.7</v>
+      </c>
       <c r="AI156" s="3"/>
       <c r="AK156" s="1">
         <v>148</v>
@@ -8462,12 +9043,16 @@
       <c r="E157" s="1">
         <v>149</v>
       </c>
-      <c r="F157" s="2"/>
+      <c r="F157" s="2">
+        <v>4.8</v>
+      </c>
       <c r="G157" s="3"/>
       <c r="I157" s="1">
         <v>149</v>
       </c>
-      <c r="J157" s="2"/>
+      <c r="J157" s="10">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="K157" s="3"/>
       <c r="M157" s="1">
         <v>149</v>
@@ -8492,7 +9077,9 @@
       <c r="AC157" s="1">
         <v>149</v>
       </c>
-      <c r="AD157" s="2"/>
+      <c r="AD157" s="2">
+        <v>2</v>
+      </c>
       <c r="AE157" s="3"/>
       <c r="AG157" s="1">
         <v>149</v>
@@ -8591,7 +9178,9 @@
       <c r="Y159" s="1">
         <v>151</v>
       </c>
-      <c r="Z159" s="2"/>
+      <c r="Z159" s="2">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="AA159" s="3"/>
       <c r="AC159" s="1">
         <v>151</v>
@@ -8665,7 +9254,9 @@
       <c r="A161" s="1">
         <v>153</v>
       </c>
-      <c r="B161" s="2"/>
+      <c r="B161" s="2">
+        <v>4</v>
+      </c>
       <c r="C161" s="3"/>
       <c r="E161" s="1">
         <v>153</v>
@@ -8680,12 +9271,16 @@
       <c r="M161" s="1">
         <v>153</v>
       </c>
-      <c r="N161" s="2"/>
+      <c r="N161" s="2">
+        <v>3.9</v>
+      </c>
       <c r="O161" s="3"/>
       <c r="Q161" s="1">
         <v>153</v>
       </c>
-      <c r="R161" s="2"/>
+      <c r="R161" s="10">
+        <v>8</v>
+      </c>
       <c r="S161" s="3"/>
       <c r="U161" s="1">
         <v>153</v>
@@ -8742,7 +9337,9 @@
       <c r="U162" s="1">
         <v>154</v>
       </c>
-      <c r="V162" s="2"/>
+      <c r="V162" s="2">
+        <v>7.2</v>
+      </c>
       <c r="W162" s="3"/>
       <c r="Y162" s="1">
         <v>154</v>
@@ -8762,7 +9359,9 @@
       <c r="AK162" s="1">
         <v>154</v>
       </c>
-      <c r="AL162" s="2"/>
+      <c r="AL162" s="2">
+        <v>2.9</v>
+      </c>
       <c r="AM162" s="3"/>
     </row>
     <row r="163" spans="1:39" x14ac:dyDescent="0.25">
@@ -8809,7 +9408,9 @@
       <c r="AG163" s="1">
         <v>155</v>
       </c>
-      <c r="AH163" s="2"/>
+      <c r="AH163" s="2">
+        <v>17.399999999999999</v>
+      </c>
       <c r="AI163" s="3"/>
       <c r="AK163" s="1">
         <v>155</v>
@@ -8826,12 +9427,16 @@
       <c r="E164" s="1">
         <v>156</v>
       </c>
-      <c r="F164" s="2"/>
+      <c r="F164" s="2">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="G164" s="3"/>
       <c r="I164" s="1">
         <v>156</v>
       </c>
-      <c r="J164" s="2"/>
+      <c r="J164" s="10">
+        <v>0.9</v>
+      </c>
       <c r="K164" s="3"/>
       <c r="M164" s="1">
         <v>156</v>
@@ -8856,7 +9461,9 @@
       <c r="AC164" s="1">
         <v>156</v>
       </c>
-      <c r="AD164" s="2"/>
+      <c r="AD164" s="2">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="AE164" s="3"/>
       <c r="AG164" s="1">
         <v>156</v>
@@ -8955,7 +9562,9 @@
       <c r="Y166" s="1">
         <v>158</v>
       </c>
-      <c r="Z166" s="2"/>
+      <c r="Z166" s="2">
+        <v>1.2</v>
+      </c>
       <c r="AA166" s="3"/>
       <c r="AC166" s="1">
         <v>158</v>
@@ -8997,7 +9606,9 @@
       <c r="Q167" s="1">
         <v>159</v>
       </c>
-      <c r="R167" s="2"/>
+      <c r="R167" s="2">
+        <v>0</v>
+      </c>
       <c r="S167" s="3"/>
       <c r="U167" s="1">
         <v>159</v>
@@ -9029,7 +9640,9 @@
       <c r="A168" s="1">
         <v>160</v>
       </c>
-      <c r="B168" s="2"/>
+      <c r="B168" s="2">
+        <v>2.7</v>
+      </c>
       <c r="C168" s="3"/>
       <c r="E168" s="1">
         <v>160</v>
@@ -9044,7 +9657,9 @@
       <c r="M168" s="1">
         <v>160</v>
       </c>
-      <c r="N168" s="2"/>
+      <c r="N168" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O168" s="3"/>
       <c r="Q168" s="1">
         <v>160</v>
@@ -9074,7 +9689,9 @@
       <c r="AK168" s="1">
         <v>160</v>
       </c>
-      <c r="AL168" s="2"/>
+      <c r="AL168" s="2">
+        <v>10.9</v>
+      </c>
       <c r="AM168" s="3"/>
     </row>
     <row r="169" spans="1:39" x14ac:dyDescent="0.25">
@@ -9106,7 +9723,9 @@
       <c r="U169" s="1">
         <v>161</v>
       </c>
-      <c r="V169" s="2"/>
+      <c r="V169" s="2">
+        <v>0</v>
+      </c>
       <c r="W169" s="3"/>
       <c r="Y169" s="1">
         <v>161</v>
@@ -9173,7 +9792,9 @@
       <c r="AG170" s="1">
         <v>162</v>
       </c>
-      <c r="AH170" s="2"/>
+      <c r="AH170" s="2">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="AI170" s="3"/>
       <c r="AK170" s="1">
         <v>162</v>
@@ -9195,7 +9816,9 @@
       <c r="I171" s="1">
         <v>163</v>
       </c>
-      <c r="J171" s="2"/>
+      <c r="J171" s="2">
+        <v>2.7</v>
+      </c>
       <c r="K171" s="3"/>
       <c r="M171" s="1">
         <v>163</v>
@@ -9220,7 +9843,9 @@
       <c r="AC171" s="1">
         <v>163</v>
       </c>
-      <c r="AD171" s="2"/>
+      <c r="AD171" s="2">
+        <v>8.9</v>
+      </c>
       <c r="AE171" s="3"/>
       <c r="AG171" s="1">
         <v>163</v>
@@ -9242,7 +9867,9 @@
       <c r="E172" s="1">
         <v>164</v>
       </c>
-      <c r="F172" s="2"/>
+      <c r="F172" s="2">
+        <v>0</v>
+      </c>
       <c r="G172" s="3"/>
       <c r="I172" s="1">
         <v>164</v>
@@ -9267,7 +9894,9 @@
       <c r="Y172" s="1">
         <v>164</v>
       </c>
-      <c r="Z172" s="2"/>
+      <c r="Z172" s="2">
+        <v>3.5</v>
+      </c>
       <c r="AA172" s="3"/>
       <c r="AC172" s="1">
         <v>164</v>
@@ -9361,7 +9990,9 @@
       <c r="Q174" s="1">
         <v>166</v>
       </c>
-      <c r="R174" s="2"/>
+      <c r="R174" s="2">
+        <v>0.5</v>
+      </c>
       <c r="S174" s="3"/>
       <c r="U174" s="1">
         <v>166</v>
@@ -9386,14 +10017,18 @@
       <c r="AK174" s="1">
         <v>166</v>
       </c>
-      <c r="AL174" s="2"/>
+      <c r="AL174" s="2">
+        <v>7.8</v>
+      </c>
       <c r="AM174" s="3"/>
     </row>
     <row r="175" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>167</v>
       </c>
-      <c r="B175" s="2"/>
+      <c r="B175" s="2">
+        <v>3.4</v>
+      </c>
       <c r="C175" s="3"/>
       <c r="E175" s="1">
         <v>167</v>
@@ -9460,7 +10095,9 @@
       <c r="M176" s="1">
         <v>168</v>
       </c>
-      <c r="N176" s="2"/>
+      <c r="N176" s="2">
+        <v>7</v>
+      </c>
       <c r="O176" s="3"/>
       <c r="Q176" s="1">
         <v>168</v>
@@ -9470,7 +10107,9 @@
       <c r="U176" s="1">
         <v>168</v>
       </c>
-      <c r="V176" s="2"/>
+      <c r="V176" s="2">
+        <v>2.8</v>
+      </c>
       <c r="W176" s="3"/>
       <c r="Y176" s="1">
         <v>168</v>
@@ -9532,12 +10171,16 @@
       <c r="AC177" s="1">
         <v>169</v>
       </c>
-      <c r="AD177" s="2"/>
+      <c r="AD177" s="2">
+        <v>5.7</v>
+      </c>
       <c r="AE177" s="3"/>
       <c r="AG177" s="1">
         <v>169</v>
       </c>
-      <c r="AH177" s="2"/>
+      <c r="AH177" s="10">
+        <v>2.4</v>
+      </c>
       <c r="AI177" s="3"/>
       <c r="AK177" s="1">
         <v>169</v>
@@ -9559,7 +10202,9 @@
       <c r="I178" s="1">
         <v>170</v>
       </c>
-      <c r="J178" s="2"/>
+      <c r="J178" s="2">
+        <v>6.7</v>
+      </c>
       <c r="K178" s="3"/>
       <c r="M178" s="1">
         <v>170</v>
@@ -9606,7 +10251,9 @@
       <c r="E179" s="1">
         <v>171</v>
       </c>
-      <c r="F179" s="2"/>
+      <c r="F179" s="2">
+        <v>3.1</v>
+      </c>
       <c r="G179" s="3"/>
       <c r="I179" s="1">
         <v>171</v>
@@ -9631,7 +10278,9 @@
       <c r="Y179" s="1">
         <v>171</v>
       </c>
-      <c r="Z179" s="2"/>
+      <c r="Z179" s="2">
+        <v>5.4</v>
+      </c>
       <c r="AA179" s="3"/>
       <c r="AC179" s="1">
         <v>171</v>
@@ -9725,7 +10374,9 @@
       <c r="Q181" s="1">
         <v>173</v>
       </c>
-      <c r="R181" s="2"/>
+      <c r="R181" s="2">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="S181" s="3"/>
       <c r="U181" s="1">
         <v>173</v>
@@ -9750,14 +10401,18 @@
       <c r="AK181" s="1">
         <v>173</v>
       </c>
-      <c r="AL181" s="2"/>
+      <c r="AL181" s="2">
+        <v>2.9</v>
+      </c>
       <c r="AM181" s="3"/>
     </row>
     <row r="182" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>174</v>
       </c>
-      <c r="B182" s="2"/>
+      <c r="B182" s="2">
+        <v>2.1</v>
+      </c>
       <c r="C182" s="3"/>
       <c r="E182" s="1">
         <v>174</v>
@@ -9824,7 +10479,9 @@
       <c r="M183" s="1">
         <v>175</v>
       </c>
-      <c r="N183" s="2"/>
+      <c r="N183" s="2">
+        <v>3</v>
+      </c>
       <c r="O183" s="3"/>
       <c r="Q183" s="1">
         <v>175</v>
@@ -9834,7 +10491,9 @@
       <c r="U183" s="1">
         <v>175</v>
       </c>
-      <c r="V183" s="2"/>
+      <c r="V183" s="2">
+        <v>8.4</v>
+      </c>
       <c r="W183" s="3"/>
       <c r="Y183" s="1">
         <v>175</v>
@@ -9871,7 +10530,9 @@
       <c r="I184" s="1">
         <v>176</v>
       </c>
-      <c r="J184" s="2"/>
+      <c r="J184" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="K184" s="3"/>
       <c r="M184" s="1">
         <v>176</v>
@@ -9896,12 +10557,16 @@
       <c r="AC184" s="1">
         <v>176</v>
       </c>
-      <c r="AD184" s="2"/>
+      <c r="AD184" s="2">
+        <v>3.4</v>
+      </c>
       <c r="AE184" s="3"/>
       <c r="AG184" s="1">
         <v>176</v>
       </c>
-      <c r="AH184" s="2"/>
+      <c r="AH184" s="10">
+        <v>11.2</v>
+      </c>
       <c r="AI184" s="3"/>
       <c r="AK184" s="1">
         <v>176</v>
@@ -9970,7 +10635,9 @@
       <c r="E186" s="1">
         <v>178</v>
       </c>
-      <c r="F186" s="2"/>
+      <c r="F186" s="2">
+        <v>7.5</v>
+      </c>
       <c r="G186" s="3"/>
       <c r="I186" s="1">
         <v>178</v>
@@ -9995,7 +10662,9 @@
       <c r="Y186" s="1">
         <v>178</v>
       </c>
-      <c r="Z186" s="2"/>
+      <c r="Z186" s="2">
+        <v>0.6</v>
+      </c>
       <c r="AA186" s="3"/>
       <c r="AC186" s="1">
         <v>178</v>
@@ -10089,7 +10758,9 @@
       <c r="Q188" s="1">
         <v>180</v>
       </c>
-      <c r="R188" s="2"/>
+      <c r="R188" s="2">
+        <v>0.8</v>
+      </c>
       <c r="S188" s="3"/>
       <c r="U188" s="1">
         <v>180</v>
@@ -10114,14 +10785,18 @@
       <c r="AK188" s="1">
         <v>180</v>
       </c>
-      <c r="AL188" s="2"/>
+      <c r="AL188" s="2">
+        <v>9.1</v>
+      </c>
       <c r="AM188" s="3"/>
     </row>
     <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>181</v>
       </c>
-      <c r="B189" s="2"/>
+      <c r="B189" s="2">
+        <v>7.3</v>
+      </c>
       <c r="C189" s="3"/>
       <c r="E189" s="1">
         <v>181</v>
@@ -10183,12 +10858,16 @@
       <c r="I190" s="1">
         <v>182</v>
       </c>
-      <c r="J190" s="2"/>
+      <c r="J190" s="2">
+        <v>1.7</v>
+      </c>
       <c r="K190" s="3"/>
       <c r="M190" s="1">
         <v>182</v>
       </c>
-      <c r="N190" s="2"/>
+      <c r="N190" s="10">
+        <v>1.3</v>
+      </c>
       <c r="O190" s="3"/>
       <c r="Q190" s="1">
         <v>182</v>
@@ -10198,7 +10877,9 @@
       <c r="U190" s="1">
         <v>182</v>
       </c>
-      <c r="V190" s="2"/>
+      <c r="V190" s="2">
+        <v>3.3</v>
+      </c>
       <c r="W190" s="3"/>
       <c r="Y190" s="1">
         <v>182</v>
@@ -10265,7 +10946,9 @@
       <c r="AG191" s="1">
         <v>183</v>
       </c>
-      <c r="AH191" s="2"/>
+      <c r="AH191" s="2">
+        <v>13.8</v>
+      </c>
       <c r="AI191" s="3"/>
       <c r="AK191" s="1">
         <v>183</v>
@@ -10307,12 +10990,16 @@
       <c r="Y192" s="1">
         <v>184</v>
       </c>
-      <c r="Z192" s="2"/>
+      <c r="Z192" s="2">
+        <v>5.5</v>
+      </c>
       <c r="AA192" s="3"/>
       <c r="AC192" s="1">
         <v>184</v>
       </c>
-      <c r="AD192" s="2"/>
+      <c r="AD192" s="10">
+        <v>10.5</v>
+      </c>
       <c r="AE192" s="3"/>
       <c r="AG192" s="1">
         <v>184</v>
@@ -10334,7 +11021,9 @@
       <c r="E193" s="1">
         <v>185</v>
       </c>
-      <c r="F193" s="2"/>
+      <c r="F193" s="2">
+        <v>1.6</v>
+      </c>
       <c r="G193" s="3"/>
       <c r="I193" s="1">
         <v>185</v>
@@ -10478,14 +11167,18 @@
       <c r="AK195" s="1">
         <v>187</v>
       </c>
-      <c r="AL195" s="2"/>
+      <c r="AL195" s="2">
+        <v>9.4</v>
+      </c>
       <c r="AM195" s="3"/>
     </row>
     <row r="196" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>188</v>
       </c>
-      <c r="B196" s="2"/>
+      <c r="B196" s="2">
+        <v>1.4</v>
+      </c>
       <c r="C196" s="3"/>
       <c r="E196" s="1">
         <v>188</v>
@@ -10500,12 +11193,16 @@
       <c r="M196" s="1">
         <v>188</v>
       </c>
-      <c r="N196" s="2"/>
+      <c r="N196" s="2">
+        <v>8.6</v>
+      </c>
       <c r="O196" s="3"/>
       <c r="Q196" s="1">
         <v>188</v>
       </c>
-      <c r="R196" s="2"/>
+      <c r="R196" s="10">
+        <v>0</v>
+      </c>
       <c r="S196" s="3"/>
       <c r="U196" s="1">
         <v>188</v>
@@ -10547,7 +11244,9 @@
       <c r="I197" s="1">
         <v>189</v>
       </c>
-      <c r="J197" s="2"/>
+      <c r="J197" s="2">
+        <v>5.6</v>
+      </c>
       <c r="K197" s="3"/>
       <c r="M197" s="1">
         <v>189</v>
@@ -10562,7 +11261,9 @@
       <c r="U197" s="1">
         <v>189</v>
       </c>
-      <c r="V197" s="2"/>
+      <c r="V197" s="2">
+        <v>0.1</v>
+      </c>
       <c r="W197" s="3"/>
       <c r="Y197" s="1">
         <v>189</v>
@@ -10629,7 +11330,9 @@
       <c r="AG198" s="1">
         <v>190</v>
       </c>
-      <c r="AH198" s="2"/>
+      <c r="AH198" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AI198" s="3"/>
       <c r="AK198" s="1">
         <v>190</v>
@@ -10671,12 +11374,16 @@
       <c r="Y199" s="1">
         <v>191</v>
       </c>
-      <c r="Z199" s="2"/>
+      <c r="Z199" s="2">
+        <v>2.4</v>
+      </c>
       <c r="AA199" s="3"/>
       <c r="AC199" s="1">
         <v>191</v>
       </c>
-      <c r="AD199" s="2"/>
+      <c r="AD199" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AE199" s="3"/>
       <c r="AG199" s="1">
         <v>191</v>
@@ -10698,7 +11405,9 @@
       <c r="E200" s="1">
         <v>192</v>
       </c>
-      <c r="F200" s="2"/>
+      <c r="F200" s="2">
+        <v>2.4</v>
+      </c>
       <c r="G200" s="3"/>
       <c r="I200" s="1">
         <v>192</v>
@@ -10797,7 +11506,9 @@
       <c r="A202" s="1">
         <v>194</v>
       </c>
-      <c r="B202" s="2"/>
+      <c r="B202" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C202" s="3"/>
       <c r="E202" s="1">
         <v>194</v>
@@ -10807,7 +11518,9 @@
       <c r="I202" s="1">
         <v>194</v>
       </c>
-      <c r="J202" s="2"/>
+      <c r="J202" s="2">
+        <v>4.2</v>
+      </c>
       <c r="K202" s="3"/>
       <c r="M202" s="1">
         <v>194</v>
@@ -10842,7 +11555,9 @@
       <c r="AK202" s="1">
         <v>194</v>
       </c>
-      <c r="AL202" s="2"/>
+      <c r="AL202" s="2">
+        <v>19.5</v>
+      </c>
       <c r="AM202" s="3"/>
     </row>
     <row r="203" spans="1:39" x14ac:dyDescent="0.25">
@@ -10864,7 +11579,9 @@
       <c r="M203" s="1">
         <v>195</v>
       </c>
-      <c r="N203" s="2"/>
+      <c r="N203" s="2">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="O203" s="3"/>
       <c r="Q203" s="1">
         <v>195</v>
@@ -10874,7 +11591,9 @@
       <c r="U203" s="1">
         <v>195</v>
       </c>
-      <c r="V203" s="2"/>
+      <c r="V203" s="2">
+        <v>8.1</v>
+      </c>
       <c r="W203" s="3"/>
       <c r="Y203" s="1">
         <v>195</v>
@@ -10921,7 +11640,9 @@
       <c r="Q204" s="1">
         <v>196</v>
       </c>
-      <c r="R204" s="2"/>
+      <c r="R204" s="2">
+        <v>7.6</v>
+      </c>
       <c r="S204" s="3"/>
       <c r="U204" s="1">
         <v>196</v>
@@ -10931,7 +11652,9 @@
       <c r="Y204" s="1">
         <v>196</v>
       </c>
-      <c r="Z204" s="2"/>
+      <c r="Z204" s="2">
+        <v>3</v>
+      </c>
       <c r="AA204" s="3"/>
       <c r="AC204" s="1">
         <v>196</v>
@@ -10993,7 +11716,9 @@
       <c r="AG205" s="1">
         <v>197</v>
       </c>
-      <c r="AH205" s="2"/>
+      <c r="AH205" s="2">
+        <v>6.9</v>
+      </c>
       <c r="AI205" s="3"/>
       <c r="AK205" s="1">
         <v>197</v>
@@ -11040,7 +11765,9 @@
       <c r="AC206" s="1">
         <v>198</v>
       </c>
-      <c r="AD206" s="2"/>
+      <c r="AD206" s="2">
+        <v>3.4</v>
+      </c>
       <c r="AE206" s="3"/>
       <c r="AG206" s="1">
         <v>198</v>
@@ -11062,7 +11789,9 @@
       <c r="E207" s="1">
         <v>199</v>
       </c>
-      <c r="F207" s="2"/>
+      <c r="F207" s="2">
+        <v>7.2</v>
+      </c>
       <c r="G207" s="3"/>
       <c r="I207" s="1">
         <v>199</v>
@@ -11109,7 +11838,9 @@
       <c r="A208" s="1">
         <v>200</v>
       </c>
-      <c r="B208" s="2"/>
+      <c r="B208" s="2">
+        <v>9.4</v>
+      </c>
       <c r="C208" s="3"/>
       <c r="E208" s="1">
         <v>200</v>
@@ -11119,7 +11850,9 @@
       <c r="I208" s="1">
         <v>200</v>
       </c>
-      <c r="J208" s="2"/>
+      <c r="J208" s="2">
+        <v>0</v>
+      </c>
       <c r="K208" s="3"/>
       <c r="M208" s="1">
         <v>200</v>
@@ -11154,7 +11887,9 @@
       <c r="AK208" s="1">
         <v>200</v>
       </c>
-      <c r="AL208" s="2"/>
+      <c r="AL208" s="2">
+        <v>10.9</v>
+      </c>
       <c r="AM208" s="3"/>
     </row>
     <row r="209" spans="1:39" x14ac:dyDescent="0.25">
@@ -11228,22 +11963,30 @@
       <c r="M210" s="1">
         <v>202</v>
       </c>
-      <c r="N210" s="2"/>
+      <c r="N210" s="2">
+        <v>0.8</v>
+      </c>
       <c r="O210" s="3"/>
       <c r="Q210" s="1">
         <v>202</v>
       </c>
-      <c r="R210" s="2"/>
+      <c r="R210" s="10">
+        <v>3.3</v>
+      </c>
       <c r="S210" s="3"/>
       <c r="U210" s="1">
         <v>202</v>
       </c>
-      <c r="V210" s="2"/>
+      <c r="V210" s="10">
+        <v>0.3</v>
+      </c>
       <c r="W210" s="3"/>
       <c r="Y210" s="1">
         <v>202</v>
       </c>
-      <c r="Z210" s="2"/>
+      <c r="Z210" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AA210" s="3"/>
       <c r="AC210" s="1">
         <v>202</v>
@@ -11352,12 +12095,16 @@
       <c r="AC212" s="1">
         <v>204</v>
       </c>
-      <c r="AD212" s="2"/>
+      <c r="AD212" s="2">
+        <v>7.8</v>
+      </c>
       <c r="AE212" s="3"/>
       <c r="AG212" s="1">
         <v>204</v>
       </c>
-      <c r="AH212" s="2"/>
+      <c r="AH212" s="10">
+        <v>11.7</v>
+      </c>
       <c r="AI212" s="3"/>
       <c r="AK212" s="1">
         <v>204</v>
@@ -11374,7 +12121,9 @@
       <c r="E213" s="1">
         <v>205</v>
       </c>
-      <c r="F213" s="2"/>
+      <c r="F213" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="G213" s="3"/>
       <c r="I213" s="1">
         <v>205</v>
@@ -11421,7 +12170,9 @@
       <c r="A214" s="1">
         <v>206</v>
       </c>
-      <c r="B214" s="2"/>
+      <c r="B214" s="2">
+        <v>1.8</v>
+      </c>
       <c r="C214" s="3"/>
       <c r="E214" s="1">
         <v>206</v>
@@ -11431,7 +12182,9 @@
       <c r="I214" s="1">
         <v>206</v>
       </c>
-      <c r="J214" s="2"/>
+      <c r="J214" s="2">
+        <v>1.8</v>
+      </c>
       <c r="K214" s="3"/>
       <c r="M214" s="1">
         <v>206</v>
@@ -11466,7 +12219,9 @@
       <c r="AK214" s="1">
         <v>206</v>
       </c>
-      <c r="AL214" s="2"/>
+      <c r="AL214" s="2">
+        <v>11.4</v>
+      </c>
       <c r="AM214" s="3"/>
     </row>
     <row r="215" spans="1:39" x14ac:dyDescent="0.25">
@@ -11592,22 +12347,30 @@
       <c r="M217" s="1">
         <v>209</v>
       </c>
-      <c r="N217" s="2"/>
+      <c r="N217" s="2">
+        <v>3.8</v>
+      </c>
       <c r="O217" s="3"/>
       <c r="Q217" s="1">
         <v>209</v>
       </c>
-      <c r="R217" s="2"/>
+      <c r="R217" s="10">
+        <v>2.8</v>
+      </c>
       <c r="S217" s="3"/>
       <c r="U217" s="1">
         <v>209</v>
       </c>
-      <c r="V217" s="2"/>
+      <c r="V217" s="10">
+        <v>1</v>
+      </c>
       <c r="W217" s="3"/>
       <c r="Y217" s="1">
         <v>209</v>
       </c>
-      <c r="Z217" s="2"/>
+      <c r="Z217" s="10">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="AA217" s="3"/>
       <c r="AC217" s="1">
         <v>209</v>
@@ -11716,7 +12479,9 @@
       <c r="AC219" s="1">
         <v>211</v>
       </c>
-      <c r="AD219" s="2"/>
+      <c r="AD219" s="2">
+        <v>2</v>
+      </c>
       <c r="AE219" s="3"/>
       <c r="AG219" s="1">
         <v>211</v>
@@ -11733,12 +12498,16 @@
       <c r="A220" s="1">
         <v>212</v>
       </c>
-      <c r="B220" s="2"/>
+      <c r="B220" s="2">
+        <v>0</v>
+      </c>
       <c r="C220" s="3"/>
       <c r="E220" s="1">
         <v>212</v>
       </c>
-      <c r="F220" s="2"/>
+      <c r="F220" s="10">
+        <v>1.4</v>
+      </c>
       <c r="G220" s="3"/>
       <c r="I220" s="1">
         <v>212</v>
@@ -11773,7 +12542,9 @@
       <c r="AG220" s="1">
         <v>212</v>
       </c>
-      <c r="AH220" s="2"/>
+      <c r="AH220" s="2">
+        <v>1.7</v>
+      </c>
       <c r="AI220" s="3"/>
       <c r="AK220" s="1">
         <v>212</v>
@@ -11795,7 +12566,9 @@
       <c r="I221" s="1">
         <v>213</v>
       </c>
-      <c r="J221" s="2"/>
+      <c r="J221" s="2">
+        <v>7.3</v>
+      </c>
       <c r="K221" s="3"/>
       <c r="M221" s="1">
         <v>213</v>
@@ -11830,7 +12603,9 @@
       <c r="AK221" s="1">
         <v>213</v>
       </c>
-      <c r="AL221" s="2"/>
+      <c r="AL221" s="2">
+        <v>7.2</v>
+      </c>
       <c r="AM221" s="3"/>
     </row>
     <row r="222" spans="1:39" x14ac:dyDescent="0.25">
@@ -11956,22 +12731,30 @@
       <c r="M224" s="1">
         <v>216</v>
       </c>
-      <c r="N224" s="2"/>
+      <c r="N224" s="2">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="O224" s="3"/>
       <c r="Q224" s="1">
         <v>216</v>
       </c>
-      <c r="R224" s="2"/>
+      <c r="R224" s="10">
+        <v>7.6</v>
+      </c>
       <c r="S224" s="3"/>
       <c r="U224" s="1">
         <v>216</v>
       </c>
-      <c r="V224" s="2"/>
+      <c r="V224" s="10">
+        <v>8.5</v>
+      </c>
       <c r="W224" s="3"/>
       <c r="Y224" s="1">
         <v>216</v>
       </c>
-      <c r="Z224" s="2"/>
+      <c r="Z224" s="10">
+        <v>0.8</v>
+      </c>
       <c r="AA224" s="3"/>
       <c r="AC224" s="1">
         <v>216</v>
@@ -12028,7 +12811,9 @@
       <c r="AC225" s="1">
         <v>217</v>
       </c>
-      <c r="AD225" s="2"/>
+      <c r="AD225" s="2">
+        <v>4.8</v>
+      </c>
       <c r="AE225" s="3"/>
       <c r="AG225" s="1">
         <v>217</v>
@@ -12097,17 +12882,23 @@
       <c r="A227" s="1">
         <v>219</v>
       </c>
-      <c r="B227" s="2"/>
+      <c r="B227" s="2">
+        <v>6.9</v>
+      </c>
       <c r="C227" s="3"/>
       <c r="E227" s="1">
         <v>219</v>
       </c>
-      <c r="F227" s="2"/>
+      <c r="F227" s="10">
+        <v>8</v>
+      </c>
       <c r="G227" s="3"/>
       <c r="I227" s="1">
         <v>219</v>
       </c>
-      <c r="J227" s="2"/>
+      <c r="J227" s="10">
+        <v>0.2</v>
+      </c>
       <c r="K227" s="3"/>
       <c r="M227" s="1">
         <v>219</v>
@@ -12137,12 +12928,16 @@
       <c r="AG227" s="1">
         <v>219</v>
       </c>
-      <c r="AH227" s="2"/>
+      <c r="AH227" s="2">
+        <v>5.4</v>
+      </c>
       <c r="AI227" s="3"/>
       <c r="AK227" s="1">
         <v>219</v>
       </c>
-      <c r="AL227" s="2"/>
+      <c r="AL227" s="10">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="AM227" s="3"/>
     </row>
     <row r="228" spans="1:39" x14ac:dyDescent="0.25">
@@ -12278,12 +13073,16 @@
       <c r="U230" s="1">
         <v>222</v>
       </c>
-      <c r="V230" s="2"/>
+      <c r="V230" s="2">
+        <v>1</v>
+      </c>
       <c r="W230" s="3"/>
       <c r="Y230" s="1">
         <v>222</v>
       </c>
-      <c r="Z230" s="2"/>
+      <c r="Z230" s="10">
+        <v>2.6</v>
+      </c>
       <c r="AA230" s="3"/>
       <c r="AC230" s="1">
         <v>222</v>
@@ -12320,7 +13119,9 @@
       <c r="M231" s="1">
         <v>223</v>
       </c>
-      <c r="N231" s="2"/>
+      <c r="N231" s="2">
+        <v>3.8</v>
+      </c>
       <c r="O231" s="3"/>
       <c r="Q231" s="1">
         <v>223</v>
@@ -12377,7 +13178,9 @@
       <c r="Q232" s="1">
         <v>224</v>
       </c>
-      <c r="R232" s="2"/>
+      <c r="R232" s="2">
+        <v>1.7</v>
+      </c>
       <c r="S232" s="3"/>
       <c r="U232" s="1">
         <v>224</v>
@@ -12392,7 +13195,9 @@
       <c r="AC232" s="1">
         <v>224</v>
       </c>
-      <c r="AD232" s="2"/>
+      <c r="AD232" s="2">
+        <v>8.9</v>
+      </c>
       <c r="AE232" s="3"/>
       <c r="AG232" s="1">
         <v>224</v>
@@ -12461,17 +13266,23 @@
       <c r="A234" s="1">
         <v>226</v>
       </c>
-      <c r="B234" s="2"/>
+      <c r="B234" s="2">
+        <v>0</v>
+      </c>
       <c r="C234" s="3"/>
       <c r="E234" s="1">
         <v>226</v>
       </c>
-      <c r="F234" s="2"/>
+      <c r="F234" s="10">
+        <v>1.5</v>
+      </c>
       <c r="G234" s="3"/>
       <c r="I234" s="1">
         <v>226</v>
       </c>
-      <c r="J234" s="2"/>
+      <c r="J234" s="10">
+        <v>0.5</v>
+      </c>
       <c r="K234" s="3"/>
       <c r="M234" s="1">
         <v>226</v>
@@ -12501,12 +13312,16 @@
       <c r="AG234" s="1">
         <v>226</v>
       </c>
-      <c r="AH234" s="2"/>
+      <c r="AH234" s="2">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="AI234" s="3"/>
       <c r="AK234" s="1">
         <v>226</v>
       </c>
-      <c r="AL234" s="2"/>
+      <c r="AL234" s="10">
+        <v>13.1</v>
+      </c>
       <c r="AM234" s="3"/>
     </row>
     <row r="235" spans="1:39" x14ac:dyDescent="0.25">
@@ -12642,12 +13457,16 @@
       <c r="U237" s="1">
         <v>229</v>
       </c>
-      <c r="V237" s="2"/>
+      <c r="V237" s="2">
+        <v>0.3</v>
+      </c>
       <c r="W237" s="3"/>
       <c r="Y237" s="1">
         <v>229</v>
       </c>
-      <c r="Z237" s="2"/>
+      <c r="Z237" s="10">
+        <v>7.1</v>
+      </c>
       <c r="AA237" s="3"/>
       <c r="AC237" s="1">
         <v>229</v>
@@ -12684,7 +13503,9 @@
       <c r="M238" s="1">
         <v>230</v>
       </c>
-      <c r="N238" s="2"/>
+      <c r="N238" s="2">
+        <v>1</v>
+      </c>
       <c r="O238" s="3"/>
       <c r="Q238" s="1">
         <v>230</v>
@@ -12741,7 +13562,9 @@
       <c r="Q239" s="1">
         <v>231</v>
       </c>
-      <c r="R239" s="2"/>
+      <c r="R239" s="2">
+        <v>8</v>
+      </c>
       <c r="S239" s="3"/>
       <c r="U239" s="1">
         <v>231</v>
@@ -12756,7 +13579,9 @@
       <c r="AC239" s="1">
         <v>231</v>
       </c>
-      <c r="AD239" s="2"/>
+      <c r="AD239" s="2">
+        <v>3.1</v>
+      </c>
       <c r="AE239" s="3"/>
       <c r="AG239" s="1">
         <v>231</v>
@@ -12773,7 +13598,9 @@
       <c r="A240" s="1">
         <v>232</v>
       </c>
-      <c r="B240" s="2"/>
+      <c r="B240" s="2">
+        <v>1.6</v>
+      </c>
       <c r="C240" s="3"/>
       <c r="E240" s="1">
         <v>232</v>
@@ -12783,7 +13610,9 @@
       <c r="I240" s="1">
         <v>232</v>
       </c>
-      <c r="J240" s="2"/>
+      <c r="J240" s="2">
+        <v>9.9</v>
+      </c>
       <c r="K240" s="3"/>
       <c r="M240" s="1">
         <v>232</v>
@@ -12830,7 +13659,9 @@
       <c r="E241" s="1">
         <v>233</v>
       </c>
-      <c r="F241" s="2"/>
+      <c r="F241" s="2">
+        <v>0.1</v>
+      </c>
       <c r="G241" s="3"/>
       <c r="I241" s="1">
         <v>233</v>
@@ -12865,12 +13696,16 @@
       <c r="AG241" s="1">
         <v>233</v>
       </c>
-      <c r="AH241" s="2"/>
+      <c r="AH241" s="2">
+        <v>0.3</v>
+      </c>
       <c r="AI241" s="3"/>
       <c r="AK241" s="1">
         <v>233</v>
       </c>
-      <c r="AL241" s="2"/>
+      <c r="AL241" s="10">
+        <v>7.6</v>
+      </c>
       <c r="AM241" s="3"/>
     </row>
     <row r="242" spans="1:39" x14ac:dyDescent="0.25">
@@ -13006,12 +13841,16 @@
       <c r="U244" s="1">
         <v>236</v>
       </c>
-      <c r="V244" s="2"/>
+      <c r="V244" s="2">
+        <v>9.4</v>
+      </c>
       <c r="W244" s="3"/>
       <c r="Y244" s="1">
         <v>236</v>
       </c>
-      <c r="Z244" s="2"/>
+      <c r="Z244" s="10">
+        <v>0.7</v>
+      </c>
       <c r="AA244" s="3"/>
       <c r="AC244" s="1">
         <v>236</v>
@@ -13048,7 +13887,9 @@
       <c r="M245" s="1">
         <v>237</v>
       </c>
-      <c r="N245" s="2"/>
+      <c r="N245" s="2">
+        <v>9.1</v>
+      </c>
       <c r="O245" s="3"/>
       <c r="Q245" s="1">
         <v>237</v>
@@ -13068,7 +13909,9 @@
       <c r="AC245" s="1">
         <v>237</v>
       </c>
-      <c r="AD245" s="2"/>
+      <c r="AD245" s="2">
+        <v>1.5</v>
+      </c>
       <c r="AE245" s="3"/>
       <c r="AG245" s="1">
         <v>237</v>
@@ -13105,7 +13948,9 @@
       <c r="Q246" s="1">
         <v>238</v>
       </c>
-      <c r="R246" s="2"/>
+      <c r="R246" s="2">
+        <v>3.4</v>
+      </c>
       <c r="S246" s="3"/>
       <c r="U246" s="1">
         <v>238</v>
@@ -13137,7 +13982,9 @@
       <c r="A247" s="1">
         <v>239</v>
       </c>
-      <c r="B247" s="2"/>
+      <c r="B247" s="2">
+        <v>7</v>
+      </c>
       <c r="C247" s="3"/>
       <c r="E247" s="1">
         <v>239</v>
@@ -13147,7 +13994,9 @@
       <c r="I247" s="1">
         <v>239</v>
       </c>
-      <c r="J247" s="2"/>
+      <c r="J247" s="2">
+        <v>1.8</v>
+      </c>
       <c r="K247" s="3"/>
       <c r="M247" s="1">
         <v>239</v>
@@ -13229,12 +14078,16 @@
       <c r="AG248" s="1">
         <v>240</v>
       </c>
-      <c r="AH248" s="2"/>
+      <c r="AH248" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AI248" s="3"/>
       <c r="AK248" s="1">
         <v>240</v>
       </c>
-      <c r="AL248" s="2"/>
+      <c r="AL248" s="10">
+        <v>4.5</v>
+      </c>
       <c r="AM248" s="3"/>
     </row>
     <row r="249" spans="1:39" x14ac:dyDescent="0.25">
@@ -13246,7 +14099,9 @@
       <c r="E249" s="1">
         <v>241</v>
       </c>
-      <c r="F249" s="2"/>
+      <c r="F249" s="2">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="G249" s="3"/>
       <c r="I249" s="1">
         <v>241</v>
@@ -13323,7 +14178,9 @@
       <c r="Y250" s="1">
         <v>242</v>
       </c>
-      <c r="Z250" s="2"/>
+      <c r="Z250" s="2">
+        <v>0</v>
+      </c>
       <c r="AA250" s="3"/>
       <c r="AC250" s="1">
         <v>242</v>
@@ -13370,7 +14227,9 @@
       <c r="U251" s="1">
         <v>243</v>
       </c>
-      <c r="V251" s="2"/>
+      <c r="V251" s="2">
+        <v>1</v>
+      </c>
       <c r="W251" s="3"/>
       <c r="Y251" s="1">
         <v>243</v>
@@ -13412,7 +14271,9 @@
       <c r="M252" s="1">
         <v>244</v>
       </c>
-      <c r="N252" s="2"/>
+      <c r="N252" s="2">
+        <v>6.5</v>
+      </c>
       <c r="O252" s="3"/>
       <c r="Q252" s="1">
         <v>244</v>
@@ -13432,7 +14293,9 @@
       <c r="AC252" s="1">
         <v>244</v>
       </c>
-      <c r="AD252" s="2"/>
+      <c r="AD252" s="2">
+        <v>12.6</v>
+      </c>
       <c r="AE252" s="3"/>
       <c r="AG252" s="1">
         <v>244</v>
@@ -13501,7 +14364,9 @@
       <c r="A254" s="1">
         <v>246</v>
       </c>
-      <c r="B254" s="2"/>
+      <c r="B254" s="2">
+        <v>2.9</v>
+      </c>
       <c r="C254" s="3"/>
       <c r="E254" s="1">
         <v>246</v>
@@ -13511,7 +14376,9 @@
       <c r="I254" s="1">
         <v>246</v>
       </c>
-      <c r="J254" s="2"/>
+      <c r="J254" s="2">
+        <v>1.7</v>
+      </c>
       <c r="K254" s="3"/>
       <c r="M254" s="1">
         <v>246</v>
@@ -13521,7 +14388,9 @@
       <c r="Q254" s="1">
         <v>246</v>
       </c>
-      <c r="R254" s="2"/>
+      <c r="R254" s="2">
+        <v>0</v>
+      </c>
       <c r="S254" s="3"/>
       <c r="U254" s="1">
         <v>246</v>
@@ -13593,12 +14462,16 @@
       <c r="AG255" s="1">
         <v>247</v>
       </c>
-      <c r="AH255" s="2"/>
+      <c r="AH255" s="2">
+        <v>5.7</v>
+      </c>
       <c r="AI255" s="3"/>
       <c r="AK255" s="1">
         <v>247</v>
       </c>
-      <c r="AL255" s="2"/>
+      <c r="AL255" s="10">
+        <v>19</v>
+      </c>
       <c r="AM255" s="3"/>
     </row>
     <row r="256" spans="1:39" x14ac:dyDescent="0.25">
@@ -13610,7 +14483,9 @@
       <c r="E256" s="1">
         <v>248</v>
       </c>
-      <c r="F256" s="2"/>
+      <c r="F256" s="2">
+        <v>0</v>
+      </c>
       <c r="G256" s="3"/>
       <c r="I256" s="1">
         <v>248</v>
@@ -13687,7 +14562,9 @@
       <c r="Y257" s="1">
         <v>249</v>
       </c>
-      <c r="Z257" s="2"/>
+      <c r="Z257" s="2">
+        <v>8.6</v>
+      </c>
       <c r="AA257" s="3"/>
       <c r="AC257" s="1">
         <v>249</v>
@@ -13734,7 +14611,9 @@
       <c r="U258" s="1">
         <v>250</v>
       </c>
-      <c r="V258" s="2"/>
+      <c r="V258" s="2">
+        <v>0.9</v>
+      </c>
       <c r="W258" s="3"/>
       <c r="Y258" s="1">
         <v>250</v>
@@ -13744,7 +14623,9 @@
       <c r="AC258" s="1">
         <v>250</v>
       </c>
-      <c r="AD258" s="2"/>
+      <c r="AD258" s="2">
+        <v>6.5</v>
+      </c>
       <c r="AE258" s="3"/>
       <c r="AG258" s="1">
         <v>250</v>
@@ -13776,7 +14657,9 @@
       <c r="M259" s="1">
         <v>251</v>
       </c>
-      <c r="N259" s="2"/>
+      <c r="N259" s="2">
+        <v>3.1</v>
+      </c>
       <c r="O259" s="3"/>
       <c r="Q259" s="1">
         <v>251</v>
@@ -13813,7 +14696,9 @@
       <c r="A260" s="1">
         <v>252</v>
       </c>
-      <c r="B260" s="2"/>
+      <c r="B260" s="2">
+        <v>3</v>
+      </c>
       <c r="C260" s="3"/>
       <c r="E260" s="1">
         <v>252</v>
@@ -13823,7 +14708,9 @@
       <c r="I260" s="1">
         <v>252</v>
       </c>
-      <c r="J260" s="2"/>
+      <c r="J260" s="2">
+        <v>7.7</v>
+      </c>
       <c r="K260" s="3"/>
       <c r="M260" s="1">
         <v>252</v>
@@ -13885,7 +14772,9 @@
       <c r="Q261" s="1">
         <v>253</v>
       </c>
-      <c r="R261" s="2"/>
+      <c r="R261" s="2">
+        <v>7.3</v>
+      </c>
       <c r="S261" s="3"/>
       <c r="U261" s="1">
         <v>253</v>
@@ -13957,12 +14846,16 @@
       <c r="AG262" s="1">
         <v>254</v>
       </c>
-      <c r="AH262" s="2"/>
+      <c r="AH262" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="AI262" s="3"/>
       <c r="AK262" s="1">
         <v>254</v>
       </c>
-      <c r="AL262" s="2"/>
+      <c r="AL262" s="10">
+        <v>7.6</v>
+      </c>
       <c r="AM262" s="3"/>
     </row>
     <row r="263" spans="1:39" x14ac:dyDescent="0.25">
@@ -13974,7 +14867,9 @@
       <c r="E263" s="1">
         <v>255</v>
       </c>
-      <c r="F263" s="2"/>
+      <c r="F263" s="2">
+        <v>2.7</v>
+      </c>
       <c r="G263" s="3"/>
       <c r="I263" s="1">
         <v>255</v>
@@ -13999,7 +14894,9 @@
       <c r="Y263" s="1">
         <v>255</v>
       </c>
-      <c r="Z263" s="2"/>
+      <c r="Z263" s="2">
+        <v>1</v>
+      </c>
       <c r="AA263" s="3"/>
       <c r="AC263" s="1">
         <v>255</v>
@@ -14098,7 +14995,9 @@
       <c r="U265" s="1">
         <v>257</v>
       </c>
-      <c r="V265" s="2"/>
+      <c r="V265" s="2">
+        <v>8.9</v>
+      </c>
       <c r="W265" s="3"/>
       <c r="Y265" s="1">
         <v>257</v>
@@ -14108,7 +15007,9 @@
       <c r="AC265" s="1">
         <v>257</v>
       </c>
-      <c r="AD265" s="2"/>
+      <c r="AD265" s="2">
+        <v>2.4</v>
+      </c>
       <c r="AE265" s="3"/>
       <c r="AG265" s="1">
         <v>257</v>
@@ -14125,7 +15026,9 @@
       <c r="A266" s="1">
         <v>258</v>
       </c>
-      <c r="B266" s="2"/>
+      <c r="B266" s="2">
+        <v>7.5</v>
+      </c>
       <c r="C266" s="3"/>
       <c r="E266" s="1">
         <v>258</v>
@@ -14135,12 +15038,16 @@
       <c r="I266" s="1">
         <v>258</v>
       </c>
-      <c r="J266" s="2"/>
+      <c r="J266" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="K266" s="3"/>
       <c r="M266" s="1">
         <v>258</v>
       </c>
-      <c r="N266" s="2"/>
+      <c r="N266" s="10">
+        <v>6</v>
+      </c>
       <c r="O266" s="3"/>
       <c r="Q266" s="1">
         <v>258</v>
@@ -14249,7 +15156,9 @@
       <c r="Q268" s="1">
         <v>260</v>
       </c>
-      <c r="R268" s="2"/>
+      <c r="R268" s="2">
+        <v>4.8</v>
+      </c>
       <c r="S268" s="3"/>
       <c r="U268" s="1">
         <v>260</v>
@@ -14274,7 +15183,9 @@
       <c r="AK268" s="1">
         <v>260</v>
       </c>
-      <c r="AL268" s="2"/>
+      <c r="AL268" s="2">
+        <v>1.9</v>
+      </c>
       <c r="AM268" s="3"/>
     </row>
     <row r="269" spans="1:39" x14ac:dyDescent="0.25">
@@ -14311,7 +15222,9 @@
       <c r="Y269" s="1">
         <v>261</v>
       </c>
-      <c r="Z269" s="2"/>
+      <c r="Z269" s="2">
+        <v>2</v>
+      </c>
       <c r="AA269" s="3"/>
       <c r="AC269" s="1">
         <v>261</v>
@@ -14321,7 +15234,9 @@
       <c r="AG269" s="1">
         <v>261</v>
       </c>
-      <c r="AH269" s="2"/>
+      <c r="AH269" s="2">
+        <v>6.9</v>
+      </c>
       <c r="AI269" s="3"/>
       <c r="AK269" s="1">
         <v>261</v>
@@ -14338,7 +15253,9 @@
       <c r="E270" s="1">
         <v>262</v>
       </c>
-      <c r="F270" s="2"/>
+      <c r="F270" s="2">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="G270" s="3"/>
       <c r="I270" s="1">
         <v>262</v>
@@ -14447,7 +15364,9 @@
       <c r="I272" s="1">
         <v>264</v>
       </c>
-      <c r="J272" s="2"/>
+      <c r="J272" s="2">
+        <v>0</v>
+      </c>
       <c r="K272" s="3"/>
       <c r="M272" s="1">
         <v>264</v>
@@ -14462,7 +15381,9 @@
       <c r="U272" s="1">
         <v>264</v>
       </c>
-      <c r="V272" s="2"/>
+      <c r="V272" s="2">
+        <v>0</v>
+      </c>
       <c r="W272" s="3"/>
       <c r="Y272" s="1">
         <v>264</v>
@@ -14472,7 +15393,9 @@
       <c r="AC272" s="1">
         <v>264</v>
       </c>
-      <c r="AD272" s="2"/>
+      <c r="AD272" s="2">
+        <v>7.5</v>
+      </c>
       <c r="AE272" s="3"/>
       <c r="AG272" s="1">
         <v>264</v>
@@ -14489,7 +15412,9 @@
       <c r="A273" s="1">
         <v>265</v>
       </c>
-      <c r="B273" s="2"/>
+      <c r="B273" s="2">
+        <v>1.3</v>
+      </c>
       <c r="C273" s="3"/>
       <c r="E273" s="1">
         <v>265</v>
@@ -14504,7 +15429,9 @@
       <c r="M273" s="1">
         <v>265</v>
       </c>
-      <c r="N273" s="2"/>
+      <c r="N273" s="2">
+        <v>1.7</v>
+      </c>
       <c r="O273" s="3"/>
       <c r="Q273" s="1">
         <v>265</v>
@@ -14613,7 +15540,9 @@
       <c r="Q275" s="1">
         <v>267</v>
       </c>
-      <c r="R275" s="2"/>
+      <c r="R275" s="2">
+        <v>0.2</v>
+      </c>
       <c r="S275" s="3"/>
       <c r="U275" s="1">
         <v>267</v>
@@ -14623,7 +15552,9 @@
       <c r="Y275" s="1">
         <v>267</v>
       </c>
-      <c r="Z275" s="2"/>
+      <c r="Z275" s="2">
+        <v>6.9</v>
+      </c>
       <c r="AA275" s="3"/>
       <c r="AC275" s="1">
         <v>267</v>
@@ -14638,7 +15569,9 @@
       <c r="AK275" s="1">
         <v>267</v>
       </c>
-      <c r="AL275" s="2"/>
+      <c r="AL275" s="2">
+        <v>12.7</v>
+      </c>
       <c r="AM275" s="3"/>
     </row>
     <row r="276" spans="1:39" x14ac:dyDescent="0.25">
@@ -14685,7 +15618,9 @@
       <c r="AG276" s="1">
         <v>268</v>
       </c>
-      <c r="AH276" s="2"/>
+      <c r="AH276" s="2">
+        <v>6.2</v>
+      </c>
       <c r="AI276" s="3"/>
       <c r="AK276" s="1">
         <v>268</v>
@@ -14702,7 +15637,9 @@
       <c r="E277" s="1">
         <v>269</v>
       </c>
-      <c r="F277" s="2"/>
+      <c r="F277" s="2">
+        <v>0</v>
+      </c>
       <c r="G277" s="3"/>
       <c r="I277" s="1">
         <v>269</v>
@@ -14774,7 +15711,9 @@
       <c r="U278" s="1">
         <v>270</v>
       </c>
-      <c r="V278" s="2"/>
+      <c r="V278" s="2">
+        <v>3.3</v>
+      </c>
       <c r="W278" s="3"/>
       <c r="Y278" s="1">
         <v>270</v>
@@ -14811,7 +15750,9 @@
       <c r="I279" s="1">
         <v>271</v>
       </c>
-      <c r="J279" s="2"/>
+      <c r="J279" s="2">
+        <v>11.8</v>
+      </c>
       <c r="K279" s="3"/>
       <c r="M279" s="1">
         <v>271</v>
@@ -14836,7 +15777,9 @@
       <c r="AC279" s="1">
         <v>271</v>
       </c>
-      <c r="AD279" s="2"/>
+      <c r="AD279" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AE279" s="3"/>
       <c r="AG279" s="1">
         <v>271</v>
@@ -14853,7 +15796,9 @@
       <c r="A280" s="1">
         <v>272</v>
       </c>
-      <c r="B280" s="2"/>
+      <c r="B280" s="2">
+        <v>0.4</v>
+      </c>
       <c r="C280" s="3"/>
       <c r="E280" s="1">
         <v>272</v>
@@ -14868,7 +15813,9 @@
       <c r="M280" s="1">
         <v>272</v>
       </c>
-      <c r="N280" s="2"/>
+      <c r="N280" s="2">
+        <v>1.2</v>
+      </c>
       <c r="O280" s="3"/>
       <c r="Q280" s="1">
         <v>272</v>
@@ -14925,7 +15872,9 @@
       <c r="Q281" s="1">
         <v>273</v>
       </c>
-      <c r="R281" s="2"/>
+      <c r="R281" s="2">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="S281" s="3"/>
       <c r="U281" s="1">
         <v>273</v>
@@ -14935,7 +15884,9 @@
       <c r="Y281" s="1">
         <v>273</v>
       </c>
-      <c r="Z281" s="2"/>
+      <c r="Z281" s="2">
+        <v>1.2</v>
+      </c>
       <c r="AA281" s="3"/>
       <c r="AC281" s="1">
         <v>273</v>
@@ -15002,7 +15953,9 @@
       <c r="AK282" s="1">
         <v>274</v>
       </c>
-      <c r="AL282" s="2"/>
+      <c r="AL282" s="2">
+        <v>0.7</v>
+      </c>
       <c r="AM282" s="3"/>
     </row>
     <row r="283" spans="1:39" x14ac:dyDescent="0.25">
@@ -15049,7 +16002,9 @@
       <c r="AG283" s="1">
         <v>275</v>
       </c>
-      <c r="AH283" s="2"/>
+      <c r="AH283" s="2">
+        <v>2.1</v>
+      </c>
       <c r="AI283" s="3"/>
       <c r="AK283" s="1">
         <v>275</v>
@@ -15066,7 +16021,9 @@
       <c r="E284" s="1">
         <v>276</v>
       </c>
-      <c r="F284" s="2"/>
+      <c r="F284" s="2">
+        <v>2.8</v>
+      </c>
       <c r="G284" s="3"/>
       <c r="I284" s="1">
         <v>276</v>
@@ -15138,7 +16095,9 @@
       <c r="U285" s="1">
         <v>277</v>
       </c>
-      <c r="V285" s="2"/>
+      <c r="V285" s="2">
+        <v>6.6</v>
+      </c>
       <c r="W285" s="3"/>
       <c r="Y285" s="1">
         <v>277</v>
@@ -15148,7 +16107,9 @@
       <c r="AC285" s="1">
         <v>277</v>
       </c>
-      <c r="AD285" s="2"/>
+      <c r="AD285" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AE285" s="3"/>
       <c r="AG285" s="1">
         <v>277</v>
@@ -15165,7 +16126,9 @@
       <c r="A286" s="1">
         <v>278</v>
       </c>
-      <c r="B286" s="2"/>
+      <c r="B286" s="2">
+        <v>10.1</v>
+      </c>
       <c r="C286" s="3"/>
       <c r="E286" s="1">
         <v>278</v>
@@ -15175,7 +16138,9 @@
       <c r="I286" s="1">
         <v>278</v>
       </c>
-      <c r="J286" s="2"/>
+      <c r="J286" s="2">
+        <v>1.9</v>
+      </c>
       <c r="K286" s="3"/>
       <c r="M286" s="1">
         <v>278</v>
@@ -15232,7 +16197,9 @@
       <c r="M287" s="1">
         <v>279</v>
       </c>
-      <c r="N287" s="2"/>
+      <c r="N287" s="2">
+        <v>9.9</v>
+      </c>
       <c r="O287" s="3"/>
       <c r="Q287" s="1">
         <v>279</v>
@@ -15289,7 +16256,9 @@
       <c r="Q288" s="1">
         <v>280</v>
       </c>
-      <c r="R288" s="2"/>
+      <c r="R288" s="2">
+        <v>6.5</v>
+      </c>
       <c r="S288" s="3"/>
       <c r="U288" s="1">
         <v>280</v>
@@ -15299,7 +16268,9 @@
       <c r="Y288" s="1">
         <v>280</v>
       </c>
-      <c r="Z288" s="2"/>
+      <c r="Z288" s="2">
+        <v>1.7</v>
+      </c>
       <c r="AA288" s="3"/>
       <c r="AC288" s="1">
         <v>280</v>
@@ -15314,7 +16285,9 @@
       <c r="AK288" s="1">
         <v>280</v>
       </c>
-      <c r="AL288" s="2"/>
+      <c r="AL288" s="2">
+        <v>6.4</v>
+      </c>
       <c r="AM288" s="3"/>
     </row>
     <row r="289" spans="1:39" x14ac:dyDescent="0.25">
@@ -15413,7 +16386,9 @@
       <c r="AG290" s="1">
         <v>282</v>
       </c>
-      <c r="AH290" s="2"/>
+      <c r="AH290" s="2">
+        <v>6.2</v>
+      </c>
       <c r="AI290" s="3"/>
       <c r="AK290" s="1">
         <v>282</v>
@@ -15430,7 +16405,9 @@
       <c r="E291" s="1">
         <v>283</v>
       </c>
-      <c r="F291" s="2"/>
+      <c r="F291" s="2">
+        <v>10.4</v>
+      </c>
       <c r="G291" s="3"/>
       <c r="I291" s="1">
         <v>283</v>
@@ -15450,7 +16427,9 @@
       <c r="U291" s="1">
         <v>283</v>
       </c>
-      <c r="V291" s="2"/>
+      <c r="V291" s="2">
+        <v>2.1</v>
+      </c>
       <c r="W291" s="3"/>
       <c r="Y291" s="1">
         <v>283</v>
@@ -15460,7 +16439,9 @@
       <c r="AC291" s="1">
         <v>283</v>
       </c>
-      <c r="AD291" s="2"/>
+      <c r="AD291" s="2">
+        <v>3.7</v>
+      </c>
       <c r="AE291" s="3"/>
       <c r="AG291" s="1">
         <v>283</v>
@@ -15487,7 +16468,9 @@
       <c r="I292" s="1">
         <v>284</v>
       </c>
-      <c r="J292" s="2"/>
+      <c r="J292" s="2">
+        <v>2.5</v>
+      </c>
       <c r="K292" s="3"/>
       <c r="M292" s="1">
         <v>284</v>
@@ -15529,7 +16512,9 @@
       <c r="A293" s="1">
         <v>285</v>
       </c>
-      <c r="B293" s="2"/>
+      <c r="B293" s="2">
+        <v>2.6</v>
+      </c>
       <c r="C293" s="3"/>
       <c r="E293" s="1">
         <v>285</v>
@@ -15596,7 +16581,9 @@
       <c r="M294" s="1">
         <v>286</v>
       </c>
-      <c r="N294" s="2"/>
+      <c r="N294" s="2">
+        <v>2.4</v>
+      </c>
       <c r="O294" s="3"/>
       <c r="Q294" s="1">
         <v>286</v>
@@ -15611,7 +16598,9 @@
       <c r="Y294" s="1">
         <v>286</v>
       </c>
-      <c r="Z294" s="2"/>
+      <c r="Z294" s="2">
+        <v>5.8</v>
+      </c>
       <c r="AA294" s="3"/>
       <c r="AC294" s="1">
         <v>286</v>
@@ -15626,7 +16615,9 @@
       <c r="AK294" s="1">
         <v>286</v>
       </c>
-      <c r="AL294" s="2"/>
+      <c r="AL294" s="2">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="AM294" s="3"/>
     </row>
     <row r="295" spans="1:39" x14ac:dyDescent="0.25">
@@ -15653,7 +16644,9 @@
       <c r="Q295" s="1">
         <v>287</v>
       </c>
-      <c r="R295" s="2"/>
+      <c r="R295" s="2">
+        <v>1.6</v>
+      </c>
       <c r="S295" s="3"/>
       <c r="U295" s="1">
         <v>287</v>
@@ -15725,7 +16718,9 @@
       <c r="AG296" s="1">
         <v>288</v>
       </c>
-      <c r="AH296" s="2"/>
+      <c r="AH296" s="2">
+        <v>11.2</v>
+      </c>
       <c r="AI296" s="3"/>
       <c r="AK296" s="1">
         <v>288</v>
@@ -15794,7 +16789,9 @@
       <c r="E298" s="1">
         <v>290</v>
       </c>
-      <c r="F298" s="2"/>
+      <c r="F298" s="2">
+        <v>1.3</v>
+      </c>
       <c r="G298" s="3"/>
       <c r="I298" s="1">
         <v>290</v>
@@ -15814,7 +16811,9 @@
       <c r="U298" s="1">
         <v>290</v>
       </c>
-      <c r="V298" s="2"/>
+      <c r="V298" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="W298" s="3"/>
       <c r="Y298" s="1">
         <v>290</v>
@@ -15824,7 +16823,9 @@
       <c r="AC298" s="1">
         <v>290</v>
       </c>
-      <c r="AD298" s="2"/>
+      <c r="AD298" s="2">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="AE298" s="3"/>
       <c r="AG298" s="1">
         <v>290</v>
@@ -15851,7 +16852,9 @@
       <c r="I299" s="1">
         <v>291</v>
       </c>
-      <c r="J299" s="2"/>
+      <c r="J299" s="2">
+        <v>7.2</v>
+      </c>
       <c r="K299" s="3"/>
       <c r="M299" s="1">
         <v>291</v>
@@ -15893,7 +16896,9 @@
       <c r="A300" s="1">
         <v>292</v>
       </c>
-      <c r="B300" s="2"/>
+      <c r="B300" s="2">
+        <v>0</v>
+      </c>
       <c r="C300" s="3"/>
       <c r="E300" s="1">
         <v>292</v>
@@ -15923,7 +16928,9 @@
       <c r="Y300" s="1">
         <v>292</v>
       </c>
-      <c r="Z300" s="2"/>
+      <c r="Z300" s="2">
+        <v>1.6</v>
+      </c>
       <c r="AA300" s="3"/>
       <c r="AC300" s="1">
         <v>292</v>
@@ -15960,7 +16967,9 @@
       <c r="M301" s="1">
         <v>293</v>
       </c>
-      <c r="N301" s="2"/>
+      <c r="N301" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O301" s="3"/>
       <c r="Q301" s="1">
         <v>293</v>
@@ -15990,7 +16999,9 @@
       <c r="AK301" s="1">
         <v>293</v>
       </c>
-      <c r="AL301" s="2"/>
+      <c r="AL301" s="2">
+        <v>0</v>
+      </c>
       <c r="AM301" s="3"/>
     </row>
     <row r="302" spans="1:39" x14ac:dyDescent="0.25">
@@ -16017,7 +17028,9 @@
       <c r="Q302" s="1">
         <v>294</v>
       </c>
-      <c r="R302" s="2"/>
+      <c r="R302" s="2">
+        <v>8.5</v>
+      </c>
       <c r="S302" s="3"/>
       <c r="U302" s="1">
         <v>294</v>
@@ -16141,7 +17154,9 @@
       <c r="AG304" s="1">
         <v>296</v>
       </c>
-      <c r="AH304" s="2"/>
+      <c r="AH304" s="2">
+        <v>1.8</v>
+      </c>
       <c r="AI304" s="3"/>
       <c r="AK304" s="1">
         <v>296</v>
@@ -16158,7 +17173,9 @@
       <c r="E305" s="1">
         <v>297</v>
       </c>
-      <c r="F305" s="2"/>
+      <c r="F305" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="G305" s="3"/>
       <c r="I305" s="1">
         <v>297</v>
@@ -16178,7 +17195,9 @@
       <c r="U305" s="1">
         <v>297</v>
       </c>
-      <c r="V305" s="2"/>
+      <c r="V305" s="2">
+        <v>3.5</v>
+      </c>
       <c r="W305" s="3"/>
       <c r="Y305" s="1">
         <v>297</v>
@@ -16188,7 +17207,9 @@
       <c r="AC305" s="1">
         <v>297</v>
       </c>
-      <c r="AD305" s="2"/>
+      <c r="AD305" s="2">
+        <v>2.4</v>
+      </c>
       <c r="AE305" s="3"/>
       <c r="AG305" s="1">
         <v>297</v>
@@ -16215,7 +17236,9 @@
       <c r="I306" s="1">
         <v>298</v>
       </c>
-      <c r="J306" s="2"/>
+      <c r="J306" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="K306" s="3"/>
       <c r="M306" s="1">
         <v>298</v>
@@ -16257,7 +17280,9 @@
       <c r="A307" s="1">
         <v>299</v>
       </c>
-      <c r="B307" s="2"/>
+      <c r="B307" s="2">
+        <v>7.6</v>
+      </c>
       <c r="C307" s="3"/>
       <c r="E307" s="1">
         <v>299</v>
@@ -16287,7 +17312,9 @@
       <c r="Y307" s="1">
         <v>299</v>
       </c>
-      <c r="Z307" s="2"/>
+      <c r="Z307" s="2">
+        <v>1.9</v>
+      </c>
       <c r="AA307" s="3"/>
       <c r="AC307" s="1">
         <v>299</v>
@@ -16302,7 +17329,9 @@
       <c r="AK307" s="1">
         <v>299</v>
       </c>
-      <c r="AL307" s="2"/>
+      <c r="AL307" s="2">
+        <v>7</v>
+      </c>
       <c r="AM307" s="3"/>
     </row>
     <row r="308" spans="1:39" x14ac:dyDescent="0.25">
@@ -16324,12 +17353,16 @@
       <c r="M308" s="1">
         <v>300</v>
       </c>
-      <c r="N308" s="2"/>
+      <c r="N308" s="2">
+        <v>5.7</v>
+      </c>
       <c r="O308" s="3"/>
       <c r="Q308" s="1">
         <v>300</v>
       </c>
-      <c r="R308" s="2"/>
+      <c r="R308" s="10">
+        <v>1.2</v>
+      </c>
       <c r="S308" s="3"/>
       <c r="U308" s="1">
         <v>300</v>
@@ -16470,7 +17503,9 @@
       <c r="E311" s="1">
         <v>303</v>
       </c>
-      <c r="F311" s="2"/>
+      <c r="F311" s="2">
+        <v>5.5</v>
+      </c>
       <c r="G311" s="3"/>
       <c r="I311" s="1">
         <v>303</v>
@@ -16505,7 +17540,9 @@
       <c r="AG311" s="1">
         <v>303</v>
       </c>
-      <c r="AH311" s="2"/>
+      <c r="AH311" s="2">
+        <v>2.5</v>
+      </c>
       <c r="AI311" s="3"/>
       <c r="AK311" s="1">
         <v>303</v>
@@ -16542,7 +17579,9 @@
       <c r="U312" s="1">
         <v>304</v>
       </c>
-      <c r="V312" s="2"/>
+      <c r="V312" s="2">
+        <v>5.5</v>
+      </c>
       <c r="W312" s="3"/>
       <c r="Y312" s="1">
         <v>304</v>
@@ -16552,7 +17591,9 @@
       <c r="AC312" s="1">
         <v>304</v>
       </c>
-      <c r="AD312" s="2"/>
+      <c r="AD312" s="2">
+        <v>12</v>
+      </c>
       <c r="AE312" s="3"/>
       <c r="AG312" s="1">
         <v>304</v>
@@ -16579,7 +17620,9 @@
       <c r="I313" s="1">
         <v>305</v>
       </c>
-      <c r="J313" s="2"/>
+      <c r="J313" s="2">
+        <v>0</v>
+      </c>
       <c r="K313" s="3"/>
       <c r="M313" s="1">
         <v>305</v>
@@ -16614,14 +17657,18 @@
       <c r="AK313" s="1">
         <v>305</v>
       </c>
-      <c r="AL313" s="2"/>
+      <c r="AL313" s="2">
+        <v>8.6</v>
+      </c>
       <c r="AM313" s="3"/>
     </row>
     <row r="314" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>306</v>
       </c>
-      <c r="B314" s="2"/>
+      <c r="B314" s="2">
+        <v>0.1</v>
+      </c>
       <c r="C314" s="3"/>
       <c r="E314" s="1">
         <v>306</v>
@@ -16651,7 +17698,9 @@
       <c r="Y314" s="1">
         <v>306</v>
       </c>
-      <c r="Z314" s="2"/>
+      <c r="Z314" s="2">
+        <v>6.3</v>
+      </c>
       <c r="AA314" s="3"/>
       <c r="AC314" s="1">
         <v>306</v>
@@ -16693,7 +17742,9 @@
       <c r="Q315" s="1">
         <v>307</v>
       </c>
-      <c r="R315" s="2"/>
+      <c r="R315" s="2">
+        <v>1.8</v>
+      </c>
       <c r="S315" s="3"/>
       <c r="U315" s="1">
         <v>307</v>
@@ -16740,7 +17791,9 @@
       <c r="M316" s="1">
         <v>308</v>
       </c>
-      <c r="N316" s="2"/>
+      <c r="N316" s="2">
+        <v>4.5</v>
+      </c>
       <c r="O316" s="3"/>
       <c r="Q316" s="1">
         <v>308</v>
@@ -16817,7 +17870,9 @@
       <c r="AG317" s="1">
         <v>309</v>
       </c>
-      <c r="AH317" s="2"/>
+      <c r="AH317" s="2">
+        <v>12.6</v>
+      </c>
       <c r="AI317" s="3"/>
       <c r="AK317" s="1">
         <v>309</v>
@@ -16834,7 +17889,9 @@
       <c r="E318" s="1">
         <v>310</v>
       </c>
-      <c r="F318" s="2"/>
+      <c r="F318" s="2">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="G318" s="3"/>
       <c r="I318" s="1">
         <v>310</v>
@@ -16906,7 +17963,9 @@
       <c r="U319" s="1">
         <v>311</v>
       </c>
-      <c r="V319" s="2"/>
+      <c r="V319" s="2">
+        <v>0</v>
+      </c>
       <c r="W319" s="3"/>
       <c r="Y319" s="1">
         <v>311</v>
@@ -16916,7 +17975,9 @@
       <c r="AC319" s="1">
         <v>311</v>
       </c>
-      <c r="AD319" s="2"/>
+      <c r="AD319" s="2">
+        <v>10.5</v>
+      </c>
       <c r="AE319" s="3"/>
       <c r="AG319" s="1">
         <v>311</v>
@@ -16926,7 +17987,9 @@
       <c r="AK319" s="1">
         <v>311</v>
       </c>
-      <c r="AL319" s="2"/>
+      <c r="AL319" s="2">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="AM319" s="3"/>
     </row>
     <row r="320" spans="1:39" x14ac:dyDescent="0.25">
@@ -16943,7 +18006,9 @@
       <c r="I320" s="1">
         <v>312</v>
       </c>
-      <c r="J320" s="2"/>
+      <c r="J320" s="2">
+        <v>7</v>
+      </c>
       <c r="K320" s="3"/>
       <c r="M320" s="1">
         <v>312</v>
@@ -16963,7 +18028,9 @@
       <c r="Y320" s="1">
         <v>312</v>
       </c>
-      <c r="Z320" s="2"/>
+      <c r="Z320" s="2">
+        <v>0.2</v>
+      </c>
       <c r="AA320" s="3"/>
       <c r="AC320" s="1">
         <v>312</v>
@@ -16985,7 +18052,9 @@
       <c r="A321" s="1">
         <v>313</v>
       </c>
-      <c r="B321" s="2"/>
+      <c r="B321" s="2">
+        <v>3.9</v>
+      </c>
       <c r="C321" s="3"/>
       <c r="E321" s="1">
         <v>313</v>
@@ -17057,7 +18126,9 @@
       <c r="Q322" s="1">
         <v>314</v>
       </c>
-      <c r="R322" s="2"/>
+      <c r="R322" s="2">
+        <v>7.8</v>
+      </c>
       <c r="S322" s="3"/>
       <c r="U322" s="1">
         <v>314</v>
@@ -17104,7 +18175,9 @@
       <c r="M323" s="1">
         <v>315</v>
       </c>
-      <c r="N323" s="2"/>
+      <c r="N323" s="2">
+        <v>0.1</v>
+      </c>
       <c r="O323" s="3"/>
       <c r="Q323" s="1">
         <v>315</v>
@@ -17181,7 +18254,9 @@
       <c r="AG324" s="1">
         <v>316</v>
       </c>
-      <c r="AH324" s="2"/>
+      <c r="AH324" s="2">
+        <v>3.3</v>
+      </c>
       <c r="AI324" s="3"/>
       <c r="AK324" s="1">
         <v>316</v>
@@ -17198,7 +18273,9 @@
       <c r="E325" s="1">
         <v>317</v>
       </c>
-      <c r="F325" s="2"/>
+      <c r="F325" s="2">
+        <v>0.8</v>
+      </c>
       <c r="G325" s="3"/>
       <c r="I325" s="1">
         <v>317</v>
@@ -17270,7 +18347,9 @@
       <c r="U326" s="1">
         <v>318</v>
       </c>
-      <c r="V326" s="2"/>
+      <c r="V326" s="2">
+        <v>6.1</v>
+      </c>
       <c r="W326" s="3"/>
       <c r="Y326" s="1">
         <v>318</v>
@@ -17280,7 +18359,9 @@
       <c r="AC326" s="1">
         <v>318</v>
       </c>
-      <c r="AD326" s="2"/>
+      <c r="AD326" s="2">
+        <v>5.5</v>
+      </c>
       <c r="AE326" s="3"/>
       <c r="AG326" s="1">
         <v>318</v>
@@ -17290,7 +18371,9 @@
       <c r="AK326" s="1">
         <v>318</v>
       </c>
-      <c r="AL326" s="2"/>
+      <c r="AL326" s="2">
+        <v>2.6</v>
+      </c>
       <c r="AM326" s="3"/>
     </row>
     <row r="327" spans="1:39" x14ac:dyDescent="0.25">
@@ -17307,7 +18390,9 @@
       <c r="I327" s="1">
         <v>319</v>
       </c>
-      <c r="J327" s="2"/>
+      <c r="J327" s="2">
+        <v>3.3</v>
+      </c>
       <c r="K327" s="3"/>
       <c r="M327" s="1">
         <v>319</v>
@@ -17327,7 +18412,9 @@
       <c r="Y327" s="1">
         <v>319</v>
       </c>
-      <c r="Z327" s="2"/>
+      <c r="Z327" s="2">
+        <v>1.5</v>
+      </c>
       <c r="AA327" s="3"/>
       <c r="AC327" s="1">
         <v>319</v>
@@ -17349,7 +18436,9 @@
       <c r="A328" s="1">
         <v>320</v>
       </c>
-      <c r="B328" s="2"/>
+      <c r="B328" s="2">
+        <v>7.4</v>
+      </c>
       <c r="C328" s="3"/>
       <c r="E328" s="1">
         <v>320</v>
@@ -17421,7 +18510,9 @@
       <c r="Q329" s="1">
         <v>321</v>
       </c>
-      <c r="R329" s="2"/>
+      <c r="R329" s="2">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="S329" s="3"/>
       <c r="U329" s="1">
         <v>321</v>
@@ -17468,7 +18559,9 @@
       <c r="M330" s="1">
         <v>322</v>
       </c>
-      <c r="N330" s="2"/>
+      <c r="N330" s="2">
+        <v>10.199999999999999</v>
+      </c>
       <c r="O330" s="3"/>
       <c r="Q330" s="1">
         <v>322</v>
@@ -17545,7 +18638,9 @@
       <c r="AG331" s="1">
         <v>323</v>
       </c>
-      <c r="AH331" s="2"/>
+      <c r="AH331" s="2">
+        <v>1.4</v>
+      </c>
       <c r="AI331" s="3"/>
       <c r="AK331" s="1">
         <v>323</v>
@@ -17614,12 +18709,16 @@
       <c r="E333" s="1">
         <v>325</v>
       </c>
-      <c r="F333" s="2"/>
+      <c r="F333" s="2">
+        <v>6.1</v>
+      </c>
       <c r="G333" s="3"/>
       <c r="I333" s="1">
         <v>325</v>
       </c>
-      <c r="J333" s="2"/>
+      <c r="J333" s="10">
+        <v>0.4</v>
+      </c>
       <c r="K333" s="3"/>
       <c r="M333" s="1">
         <v>325</v>
@@ -17634,17 +18733,23 @@
       <c r="U333" s="1">
         <v>325</v>
       </c>
-      <c r="V333" s="2"/>
+      <c r="V333" s="2">
+        <v>3</v>
+      </c>
       <c r="W333" s="3"/>
       <c r="Y333" s="1">
         <v>325</v>
       </c>
-      <c r="Z333" s="2"/>
+      <c r="Z333" s="10">
+        <v>7.9</v>
+      </c>
       <c r="AA333" s="3"/>
       <c r="AC333" s="1">
         <v>325</v>
       </c>
-      <c r="AD333" s="2"/>
+      <c r="AD333" s="10">
+        <v>2.9</v>
+      </c>
       <c r="AE333" s="3"/>
       <c r="AG333" s="1">
         <v>325</v>
@@ -17654,7 +18759,9 @@
       <c r="AK333" s="1">
         <v>325</v>
       </c>
-      <c r="AL333" s="2"/>
+      <c r="AL333" s="2">
+        <v>10.1</v>
+      </c>
       <c r="AM333" s="3"/>
     </row>
     <row r="334" spans="1:39" x14ac:dyDescent="0.25">
@@ -17713,7 +18820,9 @@
       <c r="A335" s="1">
         <v>327</v>
       </c>
-      <c r="B335" s="2"/>
+      <c r="B335" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C335" s="3"/>
       <c r="E335" s="1">
         <v>327</v>
@@ -17785,7 +18894,9 @@
       <c r="Q336" s="1">
         <v>328</v>
       </c>
-      <c r="R336" s="2"/>
+      <c r="R336" s="2">
+        <v>0.7</v>
+      </c>
       <c r="S336" s="3"/>
       <c r="U336" s="1">
         <v>328</v>
@@ -17832,7 +18943,9 @@
       <c r="M337" s="1">
         <v>329</v>
       </c>
-      <c r="N337" s="2"/>
+      <c r="N337" s="2">
+        <v>0.2</v>
+      </c>
       <c r="O337" s="3"/>
       <c r="Q337" s="1">
         <v>329</v>
@@ -17909,7 +19022,9 @@
       <c r="AG338" s="1">
         <v>330</v>
       </c>
-      <c r="AH338" s="2"/>
+      <c r="AH338" s="2">
+        <v>9.4</v>
+      </c>
       <c r="AI338" s="3"/>
       <c r="AK338" s="1">
         <v>330</v>
@@ -17946,7 +19061,9 @@
       <c r="U339" s="1">
         <v>331</v>
       </c>
-      <c r="V339" s="2"/>
+      <c r="V339" s="2">
+        <v>1.9</v>
+      </c>
       <c r="W339" s="3"/>
       <c r="Y339" s="1">
         <v>331</v>
@@ -17956,7 +19073,9 @@
       <c r="AC339" s="1">
         <v>331</v>
       </c>
-      <c r="AD339" s="2"/>
+      <c r="AD339" s="2">
+        <v>14.8</v>
+      </c>
       <c r="AE339" s="3"/>
       <c r="AG339" s="1">
         <v>331</v>
@@ -17983,7 +19102,9 @@
       <c r="I340" s="1">
         <v>332</v>
       </c>
-      <c r="J340" s="2"/>
+      <c r="J340" s="2">
+        <v>6.5</v>
+      </c>
       <c r="K340" s="3"/>
       <c r="M340" s="1">
         <v>332</v>
@@ -18003,7 +19124,9 @@
       <c r="Y340" s="1">
         <v>332</v>
       </c>
-      <c r="Z340" s="2"/>
+      <c r="Z340" s="2">
+        <v>2.8</v>
+      </c>
       <c r="AA340" s="3"/>
       <c r="AC340" s="1">
         <v>332</v>
@@ -18018,7 +19141,9 @@
       <c r="AK340" s="1">
         <v>332</v>
       </c>
-      <c r="AL340" s="2"/>
+      <c r="AL340" s="2">
+        <v>1.8</v>
+      </c>
       <c r="AM340" s="3"/>
     </row>
     <row r="341" spans="1:39" x14ac:dyDescent="0.25">
@@ -18030,7 +19155,9 @@
       <c r="E341" s="1">
         <v>333</v>
       </c>
-      <c r="F341" s="2"/>
+      <c r="F341" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G341" s="3"/>
       <c r="I341" s="1">
         <v>333</v>
@@ -18045,7 +19172,9 @@
       <c r="Q341" s="1">
         <v>333</v>
       </c>
-      <c r="R341" s="2"/>
+      <c r="R341" s="2">
+        <v>7.2</v>
+      </c>
       <c r="S341" s="3"/>
       <c r="U341" s="1">
         <v>333</v>
@@ -18077,7 +19206,9 @@
       <c r="A342" s="1">
         <v>334</v>
       </c>
-      <c r="B342" s="2"/>
+      <c r="B342" s="2">
+        <v>1.5</v>
+      </c>
       <c r="C342" s="3"/>
       <c r="E342" s="1">
         <v>334</v>
@@ -18144,7 +19275,9 @@
       <c r="M343" s="1">
         <v>335</v>
       </c>
-      <c r="N343" s="2"/>
+      <c r="N343" s="2">
+        <v>2.1</v>
+      </c>
       <c r="O343" s="3"/>
       <c r="Q343" s="1">
         <v>335</v>
@@ -18273,7 +19406,9 @@
       <c r="AG345" s="1">
         <v>337</v>
       </c>
-      <c r="AH345" s="2"/>
+      <c r="AH345" s="2">
+        <v>6.8</v>
+      </c>
       <c r="AI345" s="3"/>
       <c r="AK345" s="1">
         <v>337</v>
@@ -18320,7 +19455,9 @@
       <c r="AC346" s="1">
         <v>338</v>
       </c>
-      <c r="AD346" s="2"/>
+      <c r="AD346" s="2">
+        <v>5.8</v>
+      </c>
       <c r="AE346" s="3"/>
       <c r="AG346" s="1">
         <v>338</v>
@@ -18347,7 +19484,9 @@
       <c r="I347" s="1">
         <v>339</v>
       </c>
-      <c r="J347" s="2"/>
+      <c r="J347" s="2">
+        <v>2.9</v>
+      </c>
       <c r="K347" s="3"/>
       <c r="M347" s="1">
         <v>339</v>
@@ -18362,12 +19501,16 @@
       <c r="U347" s="1">
         <v>339</v>
       </c>
-      <c r="V347" s="2"/>
+      <c r="V347" s="2">
+        <v>4</v>
+      </c>
       <c r="W347" s="3"/>
       <c r="Y347" s="1">
         <v>339</v>
       </c>
-      <c r="Z347" s="2"/>
+      <c r="Z347" s="10">
+        <v>1.9</v>
+      </c>
       <c r="AA347" s="3"/>
       <c r="AC347" s="1">
         <v>339</v>
@@ -18382,7 +19525,9 @@
       <c r="AK347" s="1">
         <v>339</v>
       </c>
-      <c r="AL347" s="2"/>
+      <c r="AL347" s="2">
+        <v>6.2</v>
+      </c>
       <c r="AM347" s="3"/>
     </row>
     <row r="348" spans="1:39" x14ac:dyDescent="0.25">
@@ -18394,7 +19539,9 @@
       <c r="E348" s="1">
         <v>340</v>
       </c>
-      <c r="F348" s="2"/>
+      <c r="F348" s="2">
+        <v>2.5</v>
+      </c>
       <c r="G348" s="3"/>
       <c r="I348" s="1">
         <v>340</v>
@@ -18441,7 +19588,9 @@
       <c r="A349" s="1">
         <v>341</v>
       </c>
-      <c r="B349" s="2"/>
+      <c r="B349" s="2">
+        <v>7.8</v>
+      </c>
       <c r="C349" s="3"/>
       <c r="E349" s="1">
         <v>341</v>
@@ -18508,7 +19657,9 @@
       <c r="M350" s="1">
         <v>342</v>
       </c>
-      <c r="N350" s="2"/>
+      <c r="N350" s="2">
+        <v>6.3</v>
+      </c>
       <c r="O350" s="3"/>
       <c r="Q350" s="1">
         <v>342</v>
@@ -18565,7 +19716,9 @@
       <c r="Q351" s="1">
         <v>343</v>
       </c>
-      <c r="R351" s="2"/>
+      <c r="R351" s="2">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="S351" s="3"/>
       <c r="U351" s="1">
         <v>343</v>
@@ -18632,12 +19785,16 @@
       <c r="AC352" s="1">
         <v>344</v>
       </c>
-      <c r="AD352" s="2"/>
+      <c r="AD352" s="2">
+        <v>3</v>
+      </c>
       <c r="AE352" s="3"/>
       <c r="AG352" s="1">
         <v>344</v>
       </c>
-      <c r="AH352" s="2"/>
+      <c r="AH352" s="10">
+        <v>5.6</v>
+      </c>
       <c r="AI352" s="3"/>
       <c r="AK352" s="1">
         <v>344</v>
@@ -18659,7 +19816,9 @@
       <c r="I353" s="1">
         <v>345</v>
       </c>
-      <c r="J353" s="2"/>
+      <c r="J353" s="2">
+        <v>3.2</v>
+      </c>
       <c r="K353" s="3"/>
       <c r="M353" s="1">
         <v>345</v>
@@ -18679,7 +19838,9 @@
       <c r="Y353" s="1">
         <v>345</v>
       </c>
-      <c r="Z353" s="2"/>
+      <c r="Z353" s="2">
+        <v>6.9</v>
+      </c>
       <c r="AA353" s="3"/>
       <c r="AC353" s="1">
         <v>345</v>
@@ -18726,7 +19887,9 @@
       <c r="U354" s="1">
         <v>346</v>
       </c>
-      <c r="V354" s="2"/>
+      <c r="V354" s="2">
+        <v>5.6</v>
+      </c>
       <c r="W354" s="3"/>
       <c r="Y354" s="1">
         <v>346</v>
@@ -18746,7 +19909,9 @@
       <c r="AK354" s="1">
         <v>346</v>
       </c>
-      <c r="AL354" s="2"/>
+      <c r="AL354" s="2">
+        <v>10</v>
+      </c>
       <c r="AM354" s="3"/>
     </row>
     <row r="355" spans="1:39" x14ac:dyDescent="0.25">
@@ -18758,7 +19923,9 @@
       <c r="E355" s="1">
         <v>347</v>
       </c>
-      <c r="F355" s="2"/>
+      <c r="F355" s="2">
+        <v>1.6</v>
+      </c>
       <c r="G355" s="3"/>
       <c r="I355" s="1">
         <v>347</v>
@@ -18805,7 +19972,9 @@
       <c r="A356" s="1">
         <v>348</v>
       </c>
-      <c r="B356" s="2"/>
+      <c r="B356" s="2">
+        <v>2.7</v>
+      </c>
       <c r="C356" s="3"/>
       <c r="E356" s="1">
         <v>348</v>
@@ -18872,7 +20041,9 @@
       <c r="M357" s="1">
         <v>349</v>
       </c>
-      <c r="N357" s="2"/>
+      <c r="N357" s="2">
+        <v>2.9</v>
+      </c>
       <c r="O357" s="3"/>
       <c r="Q357" s="1">
         <v>349</v>
@@ -18981,7 +20152,9 @@
       <c r="Q359" s="1">
         <v>351</v>
       </c>
-      <c r="R359" s="2"/>
+      <c r="R359" s="2">
+        <v>1.6</v>
+      </c>
       <c r="S359" s="3"/>
       <c r="U359" s="1">
         <v>351</v>
@@ -18991,7 +20164,9 @@
       <c r="Y359" s="1">
         <v>351</v>
       </c>
-      <c r="Z359" s="2"/>
+      <c r="Z359" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AA359" s="3"/>
       <c r="AC359" s="1">
         <v>351</v>
@@ -19001,7 +20176,9 @@
       <c r="AG359" s="1">
         <v>351</v>
       </c>
-      <c r="AH359" s="2"/>
+      <c r="AH359" s="2">
+        <v>7.3</v>
+      </c>
       <c r="AI359" s="3"/>
       <c r="AK359" s="1">
         <v>351</v>
@@ -19023,7 +20200,9 @@
       <c r="I360" s="1">
         <v>352</v>
       </c>
-      <c r="J360" s="2"/>
+      <c r="J360" s="2">
+        <v>8.5</v>
+      </c>
       <c r="K360" s="3"/>
       <c r="M360" s="1">
         <v>352</v>
@@ -19048,7 +20227,9 @@
       <c r="AC360" s="1">
         <v>352</v>
       </c>
-      <c r="AD360" s="2"/>
+      <c r="AD360" s="2">
+        <v>9.5</v>
+      </c>
       <c r="AE360" s="3"/>
       <c r="AG360" s="1">
         <v>352</v>
@@ -19090,7 +20271,9 @@
       <c r="U361" s="1">
         <v>353</v>
       </c>
-      <c r="V361" s="2"/>
+      <c r="V361" s="2">
+        <v>0.3</v>
+      </c>
       <c r="W361" s="3"/>
       <c r="Y361" s="1">
         <v>353</v>
@@ -19110,7 +20293,9 @@
       <c r="AK361" s="1">
         <v>353</v>
       </c>
-      <c r="AL361" s="2"/>
+      <c r="AL361" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AM361" s="3"/>
     </row>
     <row r="362" spans="1:39" x14ac:dyDescent="0.25">
@@ -19122,7 +20307,9 @@
       <c r="E362" s="1">
         <v>354</v>
       </c>
-      <c r="F362" s="2"/>
+      <c r="F362" s="2">
+        <v>6.9</v>
+      </c>
       <c r="G362" s="3"/>
       <c r="I362" s="1">
         <v>354</v>
@@ -19169,7 +20356,9 @@
       <c r="A363" s="1">
         <v>355</v>
       </c>
-      <c r="B363" s="2"/>
+      <c r="B363" s="2">
+        <v>0.1</v>
+      </c>
       <c r="C363" s="3"/>
       <c r="E363" s="1">
         <v>355</v>
@@ -19236,7 +20425,9 @@
       <c r="M364" s="1">
         <v>356</v>
       </c>
-      <c r="N364" s="2"/>
+      <c r="N364" s="2">
+        <v>1.3</v>
+      </c>
       <c r="O364" s="3"/>
       <c r="Q364" s="1">
         <v>356</v>
@@ -19345,7 +20536,9 @@
       <c r="Q366" s="1">
         <v>358</v>
       </c>
-      <c r="R366" s="2"/>
+      <c r="R366" s="2">
+        <v>6</v>
+      </c>
       <c r="S366" s="3"/>
       <c r="U366" s="1">
         <v>358</v>
@@ -19355,17 +20548,23 @@
       <c r="Y366" s="1">
         <v>358</v>
       </c>
-      <c r="Z366" s="2"/>
+      <c r="Z366" s="2">
+        <v>1.6</v>
+      </c>
       <c r="AA366" s="3"/>
       <c r="AC366" s="1">
         <v>358</v>
       </c>
-      <c r="AD366" s="2"/>
+      <c r="AD366" s="10">
+        <v>3.1</v>
+      </c>
       <c r="AE366" s="3"/>
       <c r="AG366" s="1">
         <v>358</v>
       </c>
-      <c r="AH366" s="2"/>
+      <c r="AH366" s="10">
+        <v>1.9</v>
+      </c>
       <c r="AI366" s="3"/>
       <c r="AK366" s="1">
         <v>358</v>
@@ -19439,7 +20638,9 @@
       <c r="I368" s="1">
         <v>360</v>
       </c>
-      <c r="J368" s="2"/>
+      <c r="J368" s="2">
+        <v>3</v>
+      </c>
       <c r="K368" s="3"/>
       <c r="M368" s="1">
         <v>360</v>
@@ -19454,7 +20655,9 @@
       <c r="U368" s="1">
         <v>360</v>
       </c>
-      <c r="V368" s="2"/>
+      <c r="V368" s="2">
+        <v>6.9</v>
+      </c>
       <c r="W368" s="3"/>
       <c r="Y368" s="1">
         <v>360</v>
@@ -19474,7 +20677,9 @@
       <c r="AK368" s="1">
         <v>360</v>
       </c>
-      <c r="AL368" s="2"/>
+      <c r="AL368" s="2">
+        <v>12.5</v>
+      </c>
       <c r="AM368" s="3"/>
     </row>
     <row r="369" spans="1:39" x14ac:dyDescent="0.25">
@@ -19486,7 +20691,9 @@
       <c r="E369" s="1">
         <v>361</v>
       </c>
-      <c r="F369" s="2"/>
+      <c r="F369" s="2">
+        <v>1.8</v>
+      </c>
       <c r="G369" s="3"/>
       <c r="I369" s="1">
         <v>361</v>
@@ -19533,7 +20740,9 @@
       <c r="A370" s="1">
         <v>362</v>
       </c>
-      <c r="B370" s="2"/>
+      <c r="B370" s="2">
+        <v>10.8</v>
+      </c>
       <c r="C370" s="3"/>
       <c r="E370" s="1">
         <v>362</v>
@@ -19548,7 +20757,9 @@
       <c r="M370" s="1">
         <v>362</v>
       </c>
-      <c r="N370" s="2"/>
+      <c r="N370" s="2">
+        <v>9.5</v>
+      </c>
       <c r="O370" s="3"/>
       <c r="Q370" s="1">
         <v>362</v>
@@ -19657,7 +20868,9 @@
       <c r="Q372" s="1">
         <v>364</v>
       </c>
-      <c r="R372" s="2"/>
+      <c r="R372" s="2">
+        <v>4.2</v>
+      </c>
       <c r="S372" s="3"/>
       <c r="U372" s="1">
         <v>364</v>
@@ -19667,7 +20880,9 @@
       <c r="Y372" s="1">
         <v>364</v>
       </c>
-      <c r="Z372" s="2"/>
+      <c r="Z372" s="2">
+        <v>3.2</v>
+      </c>
       <c r="AA372" s="3"/>
       <c r="AC372" s="1">
         <v>364</v>
@@ -19724,12 +20939,16 @@
       <c r="AC373" s="1">
         <v>365</v>
       </c>
-      <c r="AD373" s="2"/>
+      <c r="AD373" s="2">
+        <v>5.5</v>
+      </c>
       <c r="AE373" s="3"/>
       <c r="AG373" s="1">
         <v>365</v>
       </c>
-      <c r="AH373" s="2"/>
+      <c r="AH373" s="10">
+        <v>8.6</v>
+      </c>
       <c r="AI373" s="3"/>
       <c r="AK373" s="1">
         <v>365</v>
@@ -19751,7 +20970,9 @@
       <c r="I374" s="1">
         <v>366</v>
       </c>
-      <c r="J374" s="2"/>
+      <c r="J374" s="2">
+        <v>3.4</v>
+      </c>
       <c r="K374" s="3"/>
       <c r="M374" s="1">
         <v>366</v>
@@ -19766,7 +20987,9 @@
       <c r="U374" s="1">
         <v>366</v>
       </c>
-      <c r="V374" s="2"/>
+      <c r="V374" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="W374" s="3"/>
       <c r="Y374" s="1">
         <v>366</v>
@@ -19786,7 +21009,9 @@
       <c r="AK374" s="1">
         <v>366</v>
       </c>
-      <c r="AL374" s="2"/>
+      <c r="AL374" s="2">
+        <v>11.4</v>
+      </c>
       <c r="AM374" s="3"/>
     </row>
     <row r="375" spans="1:39" x14ac:dyDescent="0.25">
@@ -19897,12 +21122,16 @@
       <c r="A377" s="1">
         <v>369</v>
       </c>
-      <c r="B377" s="2"/>
+      <c r="B377" s="2">
+        <v>3</v>
+      </c>
       <c r="C377" s="3"/>
       <c r="E377" s="1">
         <v>369</v>
       </c>
-      <c r="F377" s="2"/>
+      <c r="F377" s="10">
+        <v>1</v>
+      </c>
       <c r="G377" s="3"/>
       <c r="I377" s="1">
         <v>369</v>
@@ -19912,7 +21141,9 @@
       <c r="M377" s="1">
         <v>369</v>
       </c>
-      <c r="N377" s="2"/>
+      <c r="N377" s="2">
+        <v>1</v>
+      </c>
       <c r="O377" s="3"/>
       <c r="Q377" s="1">
         <v>369</v>
@@ -20021,7 +21252,9 @@
       <c r="Q379" s="1">
         <v>371</v>
       </c>
-      <c r="R379" s="2"/>
+      <c r="R379" s="2">
+        <v>0</v>
+      </c>
       <c r="S379" s="3"/>
       <c r="U379" s="1">
         <v>371</v>
@@ -20031,7 +21264,9 @@
       <c r="Y379" s="1">
         <v>371</v>
       </c>
-      <c r="Z379" s="2"/>
+      <c r="Z379" s="2">
+        <v>6.6</v>
+      </c>
       <c r="AA379" s="3"/>
       <c r="AC379" s="1">
         <v>371</v>
@@ -20088,12 +21323,16 @@
       <c r="AC380" s="1">
         <v>372</v>
       </c>
-      <c r="AD380" s="2"/>
+      <c r="AD380" s="2">
+        <v>11.5</v>
+      </c>
       <c r="AE380" s="3"/>
       <c r="AG380" s="1">
         <v>372</v>
       </c>
-      <c r="AH380" s="2"/>
+      <c r="AH380" s="10">
+        <v>14.9</v>
+      </c>
       <c r="AI380" s="3"/>
       <c r="AK380" s="1">
         <v>372</v>
@@ -20115,7 +21354,9 @@
       <c r="I381" s="1">
         <v>373</v>
       </c>
-      <c r="J381" s="2"/>
+      <c r="J381" s="2">
+        <v>7.1</v>
+      </c>
       <c r="K381" s="3"/>
       <c r="M381" s="1">
         <v>373</v>
@@ -20130,7 +21371,9 @@
       <c r="U381" s="1">
         <v>373</v>
       </c>
-      <c r="V381" s="2"/>
+      <c r="V381" s="2">
+        <v>0</v>
+      </c>
       <c r="W381" s="3"/>
       <c r="Y381" s="1">
         <v>373</v>
@@ -20150,7 +21393,9 @@
       <c r="AK381" s="1">
         <v>373</v>
       </c>
-      <c r="AL381" s="2"/>
+      <c r="AL381" s="2">
+        <v>1.7</v>
+      </c>
       <c r="AM381" s="3"/>
     </row>
     <row r="382" spans="1:39" x14ac:dyDescent="0.25">
@@ -20209,7 +21454,9 @@
       <c r="A383" s="1">
         <v>375</v>
       </c>
-      <c r="B383" s="2"/>
+      <c r="B383" s="2">
+        <v>0.2</v>
+      </c>
       <c r="C383" s="3"/>
       <c r="E383" s="1">
         <v>375</v>
@@ -20266,7 +21513,9 @@
       <c r="E384" s="1">
         <v>376</v>
       </c>
-      <c r="F384" s="2"/>
+      <c r="F384" s="2">
+        <v>5.6</v>
+      </c>
       <c r="G384" s="3"/>
       <c r="I384" s="1">
         <v>376</v>
@@ -20276,7 +21525,9 @@
       <c r="M384" s="1">
         <v>376</v>
       </c>
-      <c r="N384" s="2"/>
+      <c r="N384" s="2">
+        <v>2.5</v>
+      </c>
       <c r="O384" s="3"/>
       <c r="Q384" s="1">
         <v>376</v>
@@ -20343,7 +21594,9 @@
       <c r="Y385" s="1">
         <v>377</v>
       </c>
-      <c r="Z385" s="2"/>
+      <c r="Z385" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AA385" s="3"/>
       <c r="AC385" s="1">
         <v>377</v>
@@ -20385,7 +21638,9 @@
       <c r="Q386" s="1">
         <v>378</v>
       </c>
-      <c r="R386" s="2"/>
+      <c r="R386" s="2">
+        <v>5.8</v>
+      </c>
       <c r="S386" s="3"/>
       <c r="U386" s="1">
         <v>378</v>
@@ -20427,7 +21682,9 @@
       <c r="I387" s="1">
         <v>379</v>
       </c>
-      <c r="J387" s="2"/>
+      <c r="J387" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K387" s="3"/>
       <c r="M387" s="1">
         <v>379</v>
@@ -20452,12 +21709,16 @@
       <c r="AC387" s="1">
         <v>379</v>
       </c>
-      <c r="AD387" s="2"/>
+      <c r="AD387" s="2">
+        <v>3.2</v>
+      </c>
       <c r="AE387" s="3"/>
       <c r="AG387" s="1">
         <v>379</v>
       </c>
-      <c r="AH387" s="2"/>
+      <c r="AH387" s="10">
+        <v>3.5</v>
+      </c>
       <c r="AI387" s="3"/>
       <c r="AK387" s="1">
         <v>379</v>
@@ -20494,7 +21755,9 @@
       <c r="U388" s="1">
         <v>380</v>
       </c>
-      <c r="V388" s="2"/>
+      <c r="V388" s="2">
+        <v>6.1</v>
+      </c>
       <c r="W388" s="3"/>
       <c r="Y388" s="1">
         <v>380</v>
@@ -20514,7 +21777,9 @@
       <c r="AK388" s="1">
         <v>380</v>
       </c>
-      <c r="AL388" s="2"/>
+      <c r="AL388" s="2">
+        <v>6.5</v>
+      </c>
       <c r="AM388" s="3"/>
     </row>
     <row r="389" spans="1:39" x14ac:dyDescent="0.25">
@@ -20573,7 +21838,9 @@
       <c r="A390" s="1">
         <v>382</v>
       </c>
-      <c r="B390" s="2"/>
+      <c r="B390" s="2">
+        <v>6.8</v>
+      </c>
       <c r="C390" s="3"/>
       <c r="E390" s="1">
         <v>382</v>
@@ -20630,7 +21897,9 @@
       <c r="E391" s="1">
         <v>383</v>
       </c>
-      <c r="F391" s="2"/>
+      <c r="F391" s="2">
+        <v>1.7</v>
+      </c>
       <c r="G391" s="3"/>
       <c r="I391" s="1">
         <v>383</v>
@@ -20640,7 +21909,9 @@
       <c r="M391" s="1">
         <v>383</v>
       </c>
-      <c r="N391" s="2"/>
+      <c r="N391" s="2">
+        <v>7.9</v>
+      </c>
       <c r="O391" s="3"/>
       <c r="Q391" s="1">
         <v>383</v>
@@ -20707,7 +21978,9 @@
       <c r="Y392" s="1">
         <v>384</v>
       </c>
-      <c r="Z392" s="2"/>
+      <c r="Z392" s="2">
+        <v>0</v>
+      </c>
       <c r="AA392" s="3"/>
       <c r="AC392" s="1">
         <v>384</v>
@@ -20749,7 +22022,9 @@
       <c r="Q393" s="1">
         <v>385</v>
       </c>
-      <c r="R393" s="2"/>
+      <c r="R393" s="2">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="S393" s="3"/>
       <c r="U393" s="1">
         <v>385</v>
@@ -20769,7 +22044,9 @@
       <c r="AG393" s="1">
         <v>385</v>
       </c>
-      <c r="AH393" s="2"/>
+      <c r="AH393" s="2">
+        <v>11.9</v>
+      </c>
       <c r="AI393" s="3"/>
       <c r="AK393" s="1">
         <v>385</v>
@@ -20791,7 +22068,9 @@
       <c r="I394" s="1">
         <v>386</v>
       </c>
-      <c r="J394" s="2"/>
+      <c r="J394" s="2">
+        <v>1.8</v>
+      </c>
       <c r="K394" s="3"/>
       <c r="M394" s="1">
         <v>386</v>
@@ -20816,7 +22095,9 @@
       <c r="AC394" s="1">
         <v>386</v>
       </c>
-      <c r="AD394" s="2"/>
+      <c r="AD394" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AE394" s="3"/>
       <c r="AG394" s="1">
         <v>386</v>
@@ -20858,7 +22139,9 @@
       <c r="U395" s="1">
         <v>387</v>
       </c>
-      <c r="V395" s="2"/>
+      <c r="V395" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="W395" s="3"/>
       <c r="Y395" s="1">
         <v>387</v>
@@ -20878,7 +22161,9 @@
       <c r="AK395" s="1">
         <v>387</v>
       </c>
-      <c r="AL395" s="2"/>
+      <c r="AL395" s="2">
+        <v>10.4</v>
+      </c>
       <c r="AM395" s="3"/>
     </row>
     <row r="396" spans="1:39" x14ac:dyDescent="0.25">
@@ -20937,7 +22222,9 @@
       <c r="A397" s="1">
         <v>389</v>
       </c>
-      <c r="B397" s="2"/>
+      <c r="B397" s="2">
+        <v>4.8</v>
+      </c>
       <c r="C397" s="3"/>
       <c r="E397" s="1">
         <v>389</v>
@@ -20994,7 +22281,9 @@
       <c r="E398" s="1">
         <v>390</v>
       </c>
-      <c r="F398" s="2"/>
+      <c r="F398" s="2">
+        <v>0</v>
+      </c>
       <c r="G398" s="3"/>
       <c r="I398" s="1">
         <v>390</v>
@@ -21004,7 +22293,9 @@
       <c r="M398" s="1">
         <v>390</v>
       </c>
-      <c r="N398" s="2"/>
+      <c r="N398" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O398" s="3"/>
       <c r="Q398" s="1">
         <v>390</v>
@@ -21071,7 +22362,9 @@
       <c r="Y399" s="1">
         <v>391</v>
       </c>
-      <c r="Z399" s="2"/>
+      <c r="Z399" s="2">
+        <v>7.5</v>
+      </c>
       <c r="AA399" s="3"/>
       <c r="AC399" s="1">
         <v>391</v>
@@ -21113,7 +22406,9 @@
       <c r="Q400" s="1">
         <v>392</v>
       </c>
-      <c r="R400" s="2"/>
+      <c r="R400" s="2">
+        <v>0</v>
+      </c>
       <c r="S400" s="3"/>
       <c r="U400" s="1">
         <v>392</v>
@@ -21128,7 +22423,9 @@
       <c r="AC400" s="1">
         <v>392</v>
       </c>
-      <c r="AD400" s="2"/>
+      <c r="AD400" s="2">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="AE400" s="3"/>
       <c r="AG400" s="1">
         <v>392</v>
@@ -21155,7 +22452,9 @@
       <c r="I401" s="1">
         <v>393</v>
       </c>
-      <c r="J401" s="2"/>
+      <c r="J401" s="2">
+        <v>6.7</v>
+      </c>
       <c r="K401" s="3"/>
       <c r="M401" s="1">
         <v>393</v>
@@ -21185,12 +22484,16 @@
       <c r="AG401" s="1">
         <v>393</v>
       </c>
-      <c r="AH401" s="2"/>
+      <c r="AH401" s="2">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="AI401" s="3"/>
       <c r="AK401" s="1">
         <v>393</v>
       </c>
-      <c r="AL401" s="2"/>
+      <c r="AL401" s="10">
+        <v>3.6</v>
+      </c>
       <c r="AM401" s="3"/>
     </row>
     <row r="402" spans="1:39" x14ac:dyDescent="0.25">
@@ -21222,7 +22525,9 @@
       <c r="U402" s="1">
         <v>394</v>
       </c>
-      <c r="V402" s="2"/>
+      <c r="V402" s="2">
+        <v>1.3</v>
+      </c>
       <c r="W402" s="3"/>
       <c r="Y402" s="1">
         <v>394</v>
@@ -21301,7 +22606,9 @@
       <c r="A404" s="1">
         <v>396</v>
       </c>
-      <c r="B404" s="2"/>
+      <c r="B404" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C404" s="3"/>
       <c r="E404" s="1">
         <v>396</v>
@@ -21358,7 +22665,9 @@
       <c r="E405" s="1">
         <v>397</v>
       </c>
-      <c r="F405" s="2"/>
+      <c r="F405" s="2">
+        <v>10</v>
+      </c>
       <c r="G405" s="3"/>
       <c r="I405" s="1">
         <v>397</v>
@@ -21368,7 +22677,9 @@
       <c r="M405" s="1">
         <v>397</v>
       </c>
-      <c r="N405" s="2"/>
+      <c r="N405" s="2">
+        <v>1.9</v>
+      </c>
       <c r="O405" s="3"/>
       <c r="Q405" s="1">
         <v>397</v>
@@ -21383,7 +22694,9 @@
       <c r="Y405" s="1">
         <v>397</v>
       </c>
-      <c r="Z405" s="2"/>
+      <c r="Z405" s="2">
+        <v>3.4</v>
+      </c>
       <c r="AA405" s="3"/>
       <c r="AC405" s="1">
         <v>397</v>
@@ -21440,7 +22753,9 @@
       <c r="AC406" s="1">
         <v>398</v>
       </c>
-      <c r="AD406" s="2"/>
+      <c r="AD406" s="2">
+        <v>4.3</v>
+      </c>
       <c r="AE406" s="3"/>
       <c r="AG406" s="1">
         <v>398</v>
@@ -21497,7 +22812,9 @@
       <c r="AG407" s="4">
         <v>399</v>
       </c>
-      <c r="AH407" s="5"/>
+      <c r="AH407" s="5">
+        <v>2.1</v>
+      </c>
       <c r="AI407" s="6"/>
       <c r="AK407" s="4">
         <v>399</v>
@@ -21518,30 +22835,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A6:A7"/>
@@ -21549,6 +22842,30 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AM6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
